--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_11_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_11_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>91579.46838342895</v>
+        <v>90830.33117790184</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -701,25 +701,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>6.056421089299432</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -820,64 +820,64 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.721440735106512</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.33498035419292</v>
-      </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -917,38 +917,38 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>6.05642108929943</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,55 +975,55 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>6.056421089299432</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
       <c r="S6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>3.334980354192922</v>
       </c>
       <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="W7" t="n">
-        <v>3.334980354192922</v>
-      </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>11.91464376220976</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.91464376220976</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="C9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1221,13 +1221,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>13.47865120333094</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1263,13 +1263,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1315,37 +1315,37 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.721440735106512</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>10.75721046822443</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>252.1229555799665</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>27.83208648508338</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>251.3194839887477</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>276.2651596581974</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>284.1971217109846</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>60.79193593205909</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>67.13552999373051</v>
+        <v>67.13552999373054</v>
       </c>
       <c r="T11" t="n">
-        <v>90.31928412853166</v>
+        <v>90.31928412853169</v>
       </c>
       <c r="U11" t="n">
         <v>120.6951884466715</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>197.1413723866208</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>218.630082633899</v>
       </c>
       <c r="X11" t="n">
-        <v>65.7771073831095</v>
+        <v>239.120214594955</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>255.6270525725395</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>35.92229756635328</v>
       </c>
       <c r="C12" t="n">
-        <v>42.09761290480165</v>
+        <v>42.09761290480168</v>
       </c>
       <c r="D12" t="n">
-        <v>16.83417948112466</v>
+        <v>16.83417948112469</v>
       </c>
       <c r="E12" t="n">
-        <v>27.03419437188685</v>
+        <v>27.03419437188688</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>14.45832630986982</v>
       </c>
       <c r="G12" t="n">
-        <v>6.467927342848523</v>
+        <v>6.467927342848552</v>
       </c>
       <c r="H12" t="n">
-        <v>19.00865056024815</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>80.28292963098974</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>36.15552920650192</v>
+        <v>166.766415290016</v>
       </c>
       <c r="T12" t="n">
         <v>199.0977868783158</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9239673614453</v>
+        <v>95.31308127793129</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>121.0840970774055</v>
+        <v>220.3756772686432</v>
       </c>
       <c r="X12" t="n">
-        <v>75.16209911996339</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>75.07180969379027</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>49.22109409842321</v>
+        <v>49.22109409842324</v>
       </c>
       <c r="C13" t="n">
-        <v>36.63593501511374</v>
+        <v>36.63593501511377</v>
       </c>
       <c r="D13" t="n">
-        <v>18.00458693469827</v>
+        <v>18.0045869346983</v>
       </c>
       <c r="E13" t="n">
-        <v>15.82307656305508</v>
+        <v>15.82307656305511</v>
       </c>
       <c r="F13" t="n">
-        <v>14.81016193941716</v>
+        <v>14.81016193941718</v>
       </c>
       <c r="G13" t="n">
-        <v>37.15817455394611</v>
+        <v>37.15817455394614</v>
       </c>
       <c r="H13" t="n">
-        <v>29.64322724995649</v>
+        <v>29.64322724995652</v>
       </c>
       <c r="I13" t="n">
-        <v>18.16588767044212</v>
+        <v>18.16588767044215</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>36.70423262039298</v>
+        <v>36.70423262039301</v>
       </c>
       <c r="S13" t="n">
-        <v>89.53827387932876</v>
+        <v>89.53827387932878</v>
       </c>
       <c r="T13" t="n">
-        <v>96.38650517322812</v>
+        <v>96.38650517322814</v>
       </c>
       <c r="U13" t="n">
         <v>155.6960386154678</v>
@@ -1591,10 +1591,10 @@
         <v>155.9121122530769</v>
       </c>
       <c r="X13" t="n">
-        <v>95.09876930552306</v>
+        <v>95.09876930552309</v>
       </c>
       <c r="Y13" t="n">
-        <v>87.9737672685807</v>
+        <v>87.97376726858073</v>
       </c>
     </row>
     <row r="14">
@@ -1607,13 +1607,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>234.6620056874935</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>224.0721555371689</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>121.2080989625129</v>
+        <v>251.3194839887477</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>203.7972652807861</v>
+        <v>34.97915213797387</v>
       </c>
       <c r="I14" t="n">
-        <v>60.79193593205909</v>
+        <v>60.79193593205912</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.13552999373051</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>90.31928412853169</v>
       </c>
       <c r="U14" t="n">
         <v>120.6951884466715</v>
@@ -1667,13 +1667,13 @@
         <v>197.1413723866208</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>218.630082633899</v>
       </c>
       <c r="X14" t="n">
-        <v>239.1202145949549</v>
+        <v>239.120214594955</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>255.6270525725395</v>
       </c>
     </row>
     <row r="15">
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>35.92229756635325</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>42.09761290480168</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>16.83417948112469</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>14.45832630986979</v>
+        <v>14.45832630986982</v>
       </c>
       <c r="G15" t="n">
-        <v>6.467927342848523</v>
+        <v>6.467927342848552</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>83.72298284202645</v>
       </c>
       <c r="S15" t="n">
-        <v>166.766415290016</v>
+        <v>36.15552920650195</v>
       </c>
       <c r="T15" t="n">
-        <v>68.48690079480167</v>
+        <v>199.0977868783158</v>
       </c>
       <c r="U15" t="n">
-        <v>95.31308127793126</v>
+        <v>95.31308127793129</v>
       </c>
       <c r="V15" t="n">
-        <v>102.1897010659112</v>
+        <v>117.7582984151223</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>121.0840970774055</v>
       </c>
       <c r="X15" t="n">
-        <v>90.73069646917482</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>75.07180969379027</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49.22109409842321</v>
+        <v>49.22109409842324</v>
       </c>
       <c r="C16" t="n">
-        <v>36.63593501511374</v>
+        <v>36.63593501511377</v>
       </c>
       <c r="D16" t="n">
-        <v>18.00458693469827</v>
+        <v>18.0045869346983</v>
       </c>
       <c r="E16" t="n">
-        <v>15.82307656305508</v>
+        <v>15.82307656305511</v>
       </c>
       <c r="F16" t="n">
-        <v>14.81016193941716</v>
+        <v>14.81016193941718</v>
       </c>
       <c r="G16" t="n">
-        <v>37.15817455394611</v>
+        <v>37.15817455394614</v>
       </c>
       <c r="H16" t="n">
-        <v>29.64322724995649</v>
+        <v>29.64322724995652</v>
       </c>
       <c r="I16" t="n">
-        <v>18.16588767044212</v>
+        <v>18.16588767044215</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>36.70423262039298</v>
+        <v>36.70423262039301</v>
       </c>
       <c r="S16" t="n">
-        <v>89.53827387932876</v>
+        <v>89.53827387932878</v>
       </c>
       <c r="T16" t="n">
-        <v>96.38650517322812</v>
+        <v>96.38650517322814</v>
       </c>
       <c r="U16" t="n">
         <v>155.6960386154678</v>
@@ -1828,10 +1828,10 @@
         <v>155.9121122530769</v>
       </c>
       <c r="X16" t="n">
-        <v>95.09876930552306</v>
+        <v>95.09876930552309</v>
       </c>
       <c r="Y16" t="n">
-        <v>87.9737672685807</v>
+        <v>87.97376726858073</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>144.7040979752971</v>
+        <v>144.7040979752972</v>
       </c>
       <c r="C17" t="n">
         <v>127.2431480828241</v>
       </c>
       <c r="D17" t="n">
-        <v>116.6532979324995</v>
+        <v>116.6532979324996</v>
       </c>
       <c r="E17" t="n">
         <v>143.9006263840784</v>
@@ -1856,10 +1856,10 @@
         <v>168.846302053528</v>
       </c>
       <c r="G17" t="n">
-        <v>176.7782641063152</v>
+        <v>176.7782641063153</v>
       </c>
       <c r="H17" t="n">
-        <v>96.37840767611675</v>
+        <v>96.37840767611678</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,10 +1898,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.27633084200215</v>
+        <v>13.27633084200218</v>
       </c>
       <c r="V17" t="n">
-        <v>89.72251478195147</v>
+        <v>89.7225147819515</v>
       </c>
       <c r="W17" t="n">
         <v>111.2112250292296</v>
@@ -1920,25 +1920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0788134263626</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.6789634095695</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,25 +1971,25 @@
         <v>83.72298284202645</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>166.766415290016</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>199.0977868783158</v>
       </c>
       <c r="U18" t="n">
         <v>225.9239673614453</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>128.1266708034757</v>
       </c>
       <c r="W18" t="n">
-        <v>13.66523947273618</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>83.96043681732127</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>67.57937653244244</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>112.269449071841</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>48.27718101079844</v>
+        <v>48.27718101079847</v>
       </c>
       <c r="V19" t="n">
-        <v>14.10789963564457</v>
+        <v>193.9567252399279</v>
       </c>
       <c r="W19" t="n">
-        <v>48.49325464840757</v>
+        <v>48.4932546484076</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>143.9006263840784</v>
       </c>
       <c r="F20" t="n">
-        <v>168.846302053528</v>
+        <v>168.8463020535283</v>
       </c>
       <c r="G20" t="n">
         <v>176.7782641063153</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>13.27633084200218</v>
+        <v>13.27633084200219</v>
       </c>
       <c r="V20" t="n">
         <v>89.7225147819515</v>
@@ -2157,28 +2157,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0788134263626</v>
       </c>
       <c r="H21" t="n">
         <v>109.6789634095695</v>
       </c>
       <c r="I21" t="n">
-        <v>80.28292963098974</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2211,22 +2211,22 @@
         <v>166.766415290016</v>
       </c>
       <c r="T21" t="n">
-        <v>25.78012886951197</v>
+        <v>199.0977868783158</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9239673614453</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>229.9753052927415</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>13.6652394727362</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>12.07976496682311</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.7690606374602</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>48.27718101079847</v>
+        <v>228.1260066150818</v>
       </c>
       <c r="V22" t="n">
         <v>14.1078996356446</v>
@@ -2333,7 +2333,7 @@
         <v>176.7782641063153</v>
       </c>
       <c r="H23" t="n">
-        <v>96.37840767611677</v>
+        <v>96.37840767611678</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2394,19 +2394,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>26.34544433802419</v>
       </c>
       <c r="C24" t="n">
-        <v>101.0491858609646</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,19 +2442,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>83.72298284202645</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>166.766415290016</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9239673614453</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.7690606374602</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>60.35694597762161</v>
+        <v>48.27718101079847</v>
       </c>
       <c r="V25" t="n">
         <v>14.1078996356446</v>
       </c>
       <c r="W25" t="n">
-        <v>48.4932546484076</v>
+        <v>48.51010007075362</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.33797547034224</v>
+        <v>47.33797547034226</v>
       </c>
       <c r="T26" t="n">
-        <v>70.52172960514339</v>
+        <v>70.52172960514341</v>
       </c>
       <c r="U26" t="n">
         <v>100.8976339232832</v>
@@ -2637,7 +2637,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>7.236639848498584</v>
@@ -2646,10 +2646,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0788134263626</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>109.6789634095695</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2685,19 +2685,19 @@
         <v>166.766415290016</v>
       </c>
       <c r="T27" t="n">
-        <v>199.0977868783158</v>
+        <v>48.6893462714134</v>
       </c>
       <c r="U27" t="n">
-        <v>75.51552675454299</v>
+        <v>225.9239673614453</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>223.179208620442</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>96.83889540320092</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2868,13 +2868,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>16.12474304296498</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2883,10 +2883,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0788134263626</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.6789634095695</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>83.72298284202645</v>
       </c>
       <c r="S30" t="n">
         <v>166.766415290016</v>
       </c>
       <c r="T30" t="n">
-        <v>48.6893462714134</v>
+        <v>199.0977868783158</v>
       </c>
       <c r="U30" t="n">
-        <v>162.9467582481259</v>
+        <v>225.9239673614453</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>82.39214654252291</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>129.4312661801031</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -3029,10 +3029,10 @@
         <v>230.1452473609581</v>
       </c>
       <c r="C32" t="n">
-        <v>212.6842974684851</v>
+        <v>212.684297468485</v>
       </c>
       <c r="D32" t="n">
-        <v>202.0944473181605</v>
+        <v>202.0944473181604</v>
       </c>
       <c r="E32" t="n">
         <v>229.3417757697393</v>
@@ -3047,7 +3047,7 @@
         <v>181.8195570617777</v>
       </c>
       <c r="I32" t="n">
-        <v>38.81422771305068</v>
+        <v>38.81422771305066</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>45.15782177472212</v>
+        <v>45.15782177472209</v>
       </c>
       <c r="T32" t="n">
-        <v>68.34157590952327</v>
+        <v>68.34157590952324</v>
       </c>
       <c r="U32" t="n">
-        <v>98.71748022766309</v>
+        <v>98.71748022766306</v>
       </c>
       <c r="V32" t="n">
         <v>175.1636641676124</v>
@@ -3105,25 +3105,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>13.94458934734482</v>
       </c>
       <c r="C33" t="n">
-        <v>20.11990468579324</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>5.056486152878421</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>78.46191170428337</v>
       </c>
       <c r="G33" t="n">
-        <v>123.747395768491</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>109.6789634095695</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>14.17782098749351</v>
+        <v>166.766415290016</v>
       </c>
       <c r="T33" t="n">
         <v>199.0977868783158</v>
@@ -3168,7 +3168,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>99.10638885839711</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>27.2433858794148</v>
+        <v>27.24338587941477</v>
       </c>
       <c r="C34" t="n">
-        <v>14.65822679610534</v>
+        <v>14.65822679610531</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>15.18046633493771</v>
+        <v>15.18046633493768</v>
       </c>
       <c r="H34" t="n">
-        <v>7.665519030948087</v>
+        <v>7.665519030948058</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>14.72652440138457</v>
+        <v>14.72652440138455</v>
       </c>
       <c r="S34" t="n">
-        <v>67.56056566032035</v>
+        <v>67.56056566032032</v>
       </c>
       <c r="T34" t="n">
-        <v>74.40879695421971</v>
+        <v>74.40879695421968</v>
       </c>
       <c r="U34" t="n">
         <v>133.7183303964594</v>
       </c>
       <c r="V34" t="n">
-        <v>99.54904902130551</v>
+        <v>99.54904902130548</v>
       </c>
       <c r="W34" t="n">
         <v>133.9344040340685</v>
       </c>
       <c r="X34" t="n">
-        <v>73.12106108651466</v>
+        <v>73.12106108651463</v>
       </c>
       <c r="Y34" t="n">
-        <v>65.9960590495723</v>
+        <v>65.99605904957227</v>
       </c>
     </row>
     <row r="35">
@@ -3266,16 +3266,16 @@
         <v>179.6142348393359</v>
       </c>
       <c r="C35" t="n">
-        <v>162.1532849468628</v>
+        <v>162.1532849468629</v>
       </c>
       <c r="D35" t="n">
-        <v>151.5634347965382</v>
+        <v>151.5634347965383</v>
       </c>
       <c r="E35" t="n">
         <v>178.8107632481171</v>
       </c>
       <c r="F35" t="n">
-        <v>203.7564389175667</v>
+        <v>203.7564389175668</v>
       </c>
       <c r="G35" t="n">
         <v>211.688400970354</v>
@@ -3317,19 +3317,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>17.81056338790104</v>
+        <v>17.81056338790111</v>
       </c>
       <c r="U35" t="n">
-        <v>48.18646770604088</v>
+        <v>48.18646770604093</v>
       </c>
       <c r="V35" t="n">
-        <v>124.6326516459902</v>
+        <v>124.6326516459903</v>
       </c>
       <c r="W35" t="n">
-        <v>146.1213618932683</v>
+        <v>146.1213618932684</v>
       </c>
       <c r="X35" t="n">
-        <v>166.6114938543243</v>
+        <v>166.6114938543244</v>
       </c>
       <c r="Y35" t="n">
         <v>183.1183318319089</v>
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -3354,13 +3354,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>15.57636071943644</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0788134263626</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.6789634095695</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>4.043616518313863</v>
+        <v>83.72298284202645</v>
       </c>
       <c r="S36" t="n">
         <v>166.766415290016</v>
@@ -3399,16 +3399,16 @@
         <v>199.0977868783158</v>
       </c>
       <c r="U36" t="n">
-        <v>22.80436053730063</v>
+        <v>225.9239673614453</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>29.68098032528061</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>2.653378379332821</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>17.02955313869814</v>
+        <v>17.02955313869819</v>
       </c>
       <c r="T37" t="n">
-        <v>23.87778443259749</v>
+        <v>23.87778443259755</v>
       </c>
       <c r="U37" t="n">
-        <v>83.18731787483716</v>
+        <v>83.18731787483722</v>
       </c>
       <c r="V37" t="n">
-        <v>49.01803649968329</v>
+        <v>49.01803649968335</v>
       </c>
       <c r="W37" t="n">
-        <v>83.40339151244629</v>
+        <v>83.40339151244635</v>
       </c>
       <c r="X37" t="n">
-        <v>22.59004856489244</v>
+        <v>22.5900485648925</v>
       </c>
       <c r="Y37" t="n">
-        <v>15.46504652795008</v>
+        <v>15.46504652795014</v>
       </c>
     </row>
     <row r="38">
@@ -3503,16 +3503,16 @@
         <v>179.6142348393359</v>
       </c>
       <c r="C38" t="n">
-        <v>162.1532849468628</v>
+        <v>162.1532849468629</v>
       </c>
       <c r="D38" t="n">
-        <v>151.5634347965382</v>
+        <v>151.5634347965383</v>
       </c>
       <c r="E38" t="n">
         <v>178.8107632481171</v>
       </c>
       <c r="F38" t="n">
-        <v>203.7564389175667</v>
+        <v>203.7564389175668</v>
       </c>
       <c r="G38" t="n">
         <v>211.688400970354</v>
@@ -3554,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>17.81056338790106</v>
+        <v>17.81056338790108</v>
       </c>
       <c r="U38" t="n">
-        <v>48.18646770604087</v>
+        <v>48.1864677060409</v>
       </c>
       <c r="V38" t="n">
         <v>124.6326516459902</v>
@@ -3566,7 +3566,7 @@
         <v>146.1213618932683</v>
       </c>
       <c r="X38" t="n">
-        <v>166.6114938543243</v>
+        <v>166.6114938543244</v>
       </c>
       <c r="Y38" t="n">
         <v>183.1183318319089</v>
@@ -3588,19 +3588,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0788134263626</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>109.6789634095695</v>
       </c>
       <c r="I39" t="n">
-        <v>80.28292963098974</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,28 +3627,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>83.72298284202645</v>
       </c>
       <c r="S39" t="n">
         <v>166.766415290016</v>
       </c>
       <c r="T39" t="n">
-        <v>199.0977868783158</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9239673614453</v>
       </c>
       <c r="V39" t="n">
-        <v>29.68098032528056</v>
+        <v>197.0655179257151</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>2.653378379332764</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>85.8052126528421</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>17.02955313869814</v>
+        <v>17.02955313869817</v>
       </c>
       <c r="T40" t="n">
-        <v>23.87778443259749</v>
+        <v>23.87778443259752</v>
       </c>
       <c r="U40" t="n">
-        <v>83.18731787483716</v>
+        <v>83.18731787483719</v>
       </c>
       <c r="V40" t="n">
-        <v>49.01803649968329</v>
+        <v>49.01803649968332</v>
       </c>
       <c r="W40" t="n">
-        <v>83.40339151244629</v>
+        <v>83.40339151244632</v>
       </c>
       <c r="X40" t="n">
-        <v>22.59004856489244</v>
+        <v>22.59004856489247</v>
       </c>
       <c r="Y40" t="n">
-        <v>15.46504652795008</v>
+        <v>15.46504652795011</v>
       </c>
     </row>
     <row r="41">
@@ -3737,19 +3737,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>179.614234839336</v>
+        <v>179.6142348393359</v>
       </c>
       <c r="C41" t="n">
-        <v>162.153284946863</v>
+        <v>162.1532849468629</v>
       </c>
       <c r="D41" t="n">
-        <v>151.5634347965384</v>
+        <v>151.5634347965383</v>
       </c>
       <c r="E41" t="n">
         <v>178.8107632481172</v>
       </c>
       <c r="F41" t="n">
-        <v>203.7564389175669</v>
+        <v>203.7564389175668</v>
       </c>
       <c r="G41" t="n">
         <v>211.6884009703541</v>
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>17.8105633879012</v>
+        <v>17.81056338790113</v>
       </c>
       <c r="U41" t="n">
-        <v>48.18646770604101</v>
+        <v>48.18646770604096</v>
       </c>
       <c r="V41" t="n">
         <v>124.6326516459903</v>
@@ -3803,7 +3803,7 @@
         <v>146.1213618932684</v>
       </c>
       <c r="X41" t="n">
-        <v>166.6114938543245</v>
+        <v>166.6114938543244</v>
       </c>
       <c r="Y41" t="n">
         <v>183.118331831909</v>
@@ -3819,7 +3819,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3828,7 +3828,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.0788134263626</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>83.72298284202645</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>166.766415290016</v>
       </c>
       <c r="T42" t="n">
         <v>199.0977868783158</v>
@@ -3876,13 +3876,13 @@
         <v>225.9239673614453</v>
       </c>
       <c r="V42" t="n">
-        <v>29.6809803252807</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>48.57537633677504</v>
+        <v>60.6093918221113</v>
       </c>
       <c r="X42" t="n">
-        <v>186.1923285792484</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>17.02955313869828</v>
+        <v>17.02955313869822</v>
       </c>
       <c r="T43" t="n">
-        <v>23.87778443259763</v>
+        <v>23.87778443259758</v>
       </c>
       <c r="U43" t="n">
-        <v>83.1873178748373</v>
+        <v>83.18731787483725</v>
       </c>
       <c r="V43" t="n">
-        <v>49.01803649968343</v>
+        <v>49.01803649968338</v>
       </c>
       <c r="W43" t="n">
-        <v>83.40339151244643</v>
+        <v>83.40339151244638</v>
       </c>
       <c r="X43" t="n">
-        <v>22.59004856489258</v>
+        <v>22.59004856489253</v>
       </c>
       <c r="Y43" t="n">
-        <v>15.46504652795022</v>
+        <v>15.46504652795016</v>
       </c>
     </row>
     <row r="44">
@@ -3974,19 +3974,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>179.614234839336</v>
+        <v>179.6142348393359</v>
       </c>
       <c r="C44" t="n">
-        <v>162.153284946863</v>
+        <v>162.1532849468629</v>
       </c>
       <c r="D44" t="n">
-        <v>151.5634347965384</v>
+        <v>151.5634347965383</v>
       </c>
       <c r="E44" t="n">
         <v>178.8107632481172</v>
       </c>
       <c r="F44" t="n">
-        <v>203.7564389175669</v>
+        <v>203.7564389175668</v>
       </c>
       <c r="G44" t="n">
         <v>211.6884009703541</v>
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>17.8105633879012</v>
+        <v>17.81056338790114</v>
       </c>
       <c r="U44" t="n">
-        <v>48.18646770604101</v>
+        <v>48.18646770604096</v>
       </c>
       <c r="V44" t="n">
         <v>124.6326516459903</v>
@@ -4040,7 +4040,7 @@
         <v>146.1213618932684</v>
       </c>
       <c r="X44" t="n">
-        <v>166.6114938543245</v>
+        <v>166.6114938543244</v>
       </c>
       <c r="Y44" t="n">
         <v>183.118331831909</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>80.28292963098974</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>83.72298284202645</v>
       </c>
       <c r="S45" t="n">
         <v>166.766415290016</v>
@@ -4113,16 +4113,16 @@
         <v>225.9239673614453</v>
       </c>
       <c r="V45" t="n">
-        <v>29.6809803252807</v>
+        <v>29.68098032528064</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>185.3773302043072</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>181.8469875670976</v>
       </c>
     </row>
     <row r="46">
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>17.02955313869828</v>
+        <v>17.02955313869822</v>
       </c>
       <c r="T46" t="n">
-        <v>23.87778443259763</v>
+        <v>23.87778443259758</v>
       </c>
       <c r="U46" t="n">
-        <v>83.1873178748373</v>
+        <v>83.18731787483725</v>
       </c>
       <c r="V46" t="n">
-        <v>49.01803649968343</v>
+        <v>49.01803649968338</v>
       </c>
       <c r="W46" t="n">
-        <v>83.40339151244643</v>
+        <v>83.40339151244638</v>
       </c>
       <c r="X46" t="n">
-        <v>22.59004856489258</v>
+        <v>22.59004856489253</v>
       </c>
       <c r="Y46" t="n">
-        <v>15.46504652795022</v>
+        <v>15.46504652795016</v>
       </c>
     </row>
   </sheetData>
@@ -4331,7 +4331,7 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L2" t="n">
         <v>7.357368943631237</v>
@@ -4340,31 +4340,31 @@
         <v>13.8896123982571</v>
       </c>
       <c r="N2" t="n">
+        <v>13.8896123982571</v>
+      </c>
+      <c r="O2" t="n">
         <v>20.69689768255142</v>
-      </c>
-      <c r="O2" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="P2" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q2" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="R2" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S2" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T2" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U2" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V2" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W2" t="n">
         <v>14.44108515774386</v>
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C3" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D3" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E3" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F3" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G3" t="n">
         <v>0.5500836593369149</v>
@@ -4431,28 +4431,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R3" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S3" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T3" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U3" t="n">
         <v>13.6131814684388</v>
       </c>
       <c r="V3" t="n">
-        <v>13.6131814684388</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="W3" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X3" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C4" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K4" t="n">
         <v>0.5500836593369149</v>
@@ -4495,43 +4495,43 @@
         <v>7.357368943631237</v>
       </c>
       <c r="M4" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N4" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O4" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="P4" t="n">
-        <v>24.75525293138463</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.75525293138463</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="R4" t="n">
-        <v>24.75525293138463</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S4" t="n">
-        <v>21.38658590694733</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T4" t="n">
-        <v>21.38658590694733</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="U4" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="V4" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="W4" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X4" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C5" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D5" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E5" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F5" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G5" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H5" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I5" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J5" t="n">
         <v>0.5500836593369149</v>
@@ -4571,46 +4571,46 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L5" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="M5" t="n">
         <v>7.357368943631237</v>
       </c>
-      <c r="M5" t="n">
-        <v>14.16465422792556</v>
-      </c>
       <c r="N5" t="n">
+        <v>13.8896123982571</v>
+      </c>
+      <c r="O5" t="n">
         <v>20.69689768255142</v>
-      </c>
-      <c r="O5" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="P5" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q5" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R5" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S5" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T5" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U5" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V5" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W5" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X5" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y5" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13.6131814684388</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="C6" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="D6" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="H6" t="n">
         <v>0.5500836593369149</v>
@@ -4647,19 +4647,19 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5500836593369149</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N6" t="n">
-        <v>7.357368943631237</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="O6" t="n">
-        <v>13.8896123982571</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P6" t="n">
         <v>20.69689768255142</v>
@@ -4668,7 +4668,7 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S6" t="n">
         <v>20.55868221764227</v>
@@ -4686,10 +4686,10 @@
         <v>13.6131814684388</v>
       </c>
       <c r="X6" t="n">
-        <v>13.6131814684388</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.6131814684388</v>
+        <v>6.667680719235332</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K7" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="L7" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M7" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N7" t="n">
         <v>20.69689768255142</v>
@@ -4753,22 +4753,22 @@
         <v>24.75525293138463</v>
       </c>
       <c r="T7" t="n">
-        <v>24.75525293138463</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="U7" t="n">
-        <v>24.75525293138463</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V7" t="n">
-        <v>17.80975218218115</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W7" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="X7" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="8">
@@ -4784,34 +4784,34 @@
         <v>35.66202407096459</v>
       </c>
       <c r="D8" t="n">
-        <v>35.66202407096459</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="E8" t="n">
-        <v>35.66202407096459</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="F8" t="n">
-        <v>28.71652332176112</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G8" t="n">
-        <v>13.25921270041258</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H8" t="n">
-        <v>13.25921270041258</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I8" t="n">
-        <v>13.25921270041258</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J8" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K8" t="n">
-        <v>16.37392914119451</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="L8" t="n">
-        <v>16.37392914119451</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="M8" t="n">
-        <v>16.37392914119451</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="N8" t="n">
         <v>30.9115297805728</v>
@@ -4826,10 +4826,10 @@
         <v>51.11933469231312</v>
       </c>
       <c r="R8" t="n">
-        <v>35.66202407096459</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="S8" t="n">
-        <v>35.66202407096459</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="T8" t="n">
         <v>35.66202407096459</v>
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C9" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D9" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E9" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F9" t="n">
-        <v>14.83901819649459</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G9" t="n">
-        <v>14.83901819649459</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H9" t="n">
         <v>1.224219001210804</v>
@@ -4896,7 +4896,7 @@
         <v>31.52363928117821</v>
       </c>
       <c r="O9" t="n">
-        <v>31.52363928117821</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="P9" t="n">
         <v>46.0612399205565</v>
@@ -4911,22 +4911,22 @@
         <v>45.75363943919166</v>
       </c>
       <c r="T9" t="n">
-        <v>45.75363943919166</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="U9" t="n">
-        <v>45.75363943919166</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="V9" t="n">
-        <v>45.75363943919166</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="W9" t="n">
-        <v>45.75363943919166</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="X9" t="n">
-        <v>45.75363943919166</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="Y9" t="n">
-        <v>45.75363943919166</v>
+        <v>16.68152962255934</v>
       </c>
     </row>
     <row r="10">
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.68152962255934</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="C10" t="n">
         <v>16.68152962255934</v>
@@ -4945,31 +4945,31 @@
         <v>16.68152962255934</v>
       </c>
       <c r="E10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="K10" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="L10" t="n">
-        <v>16.37392914119451</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="M10" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N10" t="n">
         <v>46.0612399205565</v>
@@ -4978,34 +4978,34 @@
         <v>61.2109500605402</v>
       </c>
       <c r="P10" t="n">
-        <v>58.46202002507908</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.59615086525642</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R10" t="n">
-        <v>47.59615086525642</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S10" t="n">
-        <v>47.59615086525642</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T10" t="n">
-        <v>47.59615086525642</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U10" t="n">
-        <v>47.59615086525642</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="V10" t="n">
-        <v>47.59615086525642</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="W10" t="n">
-        <v>47.59615086525642</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="X10" t="n">
-        <v>32.13884024390788</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.68152962255934</v>
+        <v>30.29632881784312</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>911.6622372713139</v>
+        <v>58.38787888252079</v>
       </c>
       <c r="C11" t="n">
-        <v>911.6622372713139</v>
+        <v>30.2746602107194</v>
       </c>
       <c r="D11" t="n">
-        <v>911.6622372713139</v>
+        <v>30.2746602107194</v>
       </c>
       <c r="E11" t="n">
-        <v>657.8041726362152</v>
+        <v>30.2746602107194</v>
       </c>
       <c r="F11" t="n">
-        <v>378.7484558097532</v>
+        <v>30.2746602107194</v>
       </c>
       <c r="G11" t="n">
-        <v>91.6806561016882</v>
+        <v>30.2746602107194</v>
       </c>
       <c r="H11" t="n">
-        <v>91.6806561016882</v>
+        <v>30.2746602107194</v>
       </c>
       <c r="I11" t="n">
         <v>30.2746602107194</v>
       </c>
       <c r="J11" t="n">
-        <v>60.01453471024348</v>
+        <v>60.01453471024342</v>
       </c>
       <c r="K11" t="n">
         <v>225.3317015655475</v>
@@ -5072,19 +5072,19 @@
         <v>1354.687743745806</v>
       </c>
       <c r="U11" t="n">
-        <v>1232.773411981492</v>
+        <v>1232.773411981491</v>
       </c>
       <c r="V11" t="n">
-        <v>1232.773411981492</v>
+        <v>1033.640712601066</v>
       </c>
       <c r="W11" t="n">
-        <v>1232.773411981492</v>
+        <v>812.8022452940976</v>
       </c>
       <c r="X11" t="n">
-        <v>1166.33188937229</v>
+        <v>571.2666749961633</v>
       </c>
       <c r="Y11" t="n">
-        <v>1166.33188937229</v>
+        <v>313.057530983497</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>370.4713336301976</v>
+        <v>138.2466202213574</v>
       </c>
       <c r="C12" t="n">
-        <v>327.9484923122162</v>
+        <v>95.72377890337592</v>
       </c>
       <c r="D12" t="n">
-        <v>310.9442706141105</v>
+        <v>78.71955720527016</v>
       </c>
       <c r="E12" t="n">
-        <v>283.6370035718005</v>
+        <v>51.41229016296018</v>
       </c>
       <c r="F12" t="n">
-        <v>137.1024455986855</v>
+        <v>36.80792015299067</v>
       </c>
       <c r="G12" t="n">
-        <v>130.5691856564142</v>
+        <v>30.2746602107194</v>
       </c>
       <c r="H12" t="n">
-        <v>111.3685285248505</v>
+        <v>30.2746602107194</v>
       </c>
       <c r="I12" t="n">
         <v>30.2746602107194</v>
@@ -5127,16 +5127,16 @@
         <v>508.830857636024</v>
       </c>
       <c r="M12" t="n">
-        <v>508.830857636024</v>
+        <v>883.4797777436766</v>
       </c>
       <c r="N12" t="n">
         <v>883.4797777436766</v>
       </c>
       <c r="O12" t="n">
-        <v>1194.583146988458</v>
+        <v>1178.202330709321</v>
       </c>
       <c r="P12" t="n">
-        <v>1427.267960487512</v>
+        <v>1410.887144208375</v>
       </c>
       <c r="Q12" t="n">
         <v>1513.73301053597</v>
@@ -5145,10 +5145,10 @@
         <v>1513.73301053597</v>
       </c>
       <c r="S12" t="n">
-        <v>1477.212273963746</v>
+        <v>1345.2820860006</v>
       </c>
       <c r="T12" t="n">
-        <v>1276.103398329084</v>
+        <v>1144.173210365938</v>
       </c>
       <c r="U12" t="n">
         <v>1047.89737069126</v>
@@ -5157,13 +5157,13 @@
         <v>812.7452624595173</v>
       </c>
       <c r="W12" t="n">
-        <v>690.4380936944613</v>
+        <v>590.1435682487667</v>
       </c>
       <c r="X12" t="n">
-        <v>614.516781452074</v>
+        <v>382.2920680432338</v>
       </c>
       <c r="Y12" t="n">
-        <v>538.6866706502657</v>
+        <v>174.5317692782799</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>202.2353167022638</v>
+        <v>202.235316702264</v>
       </c>
       <c r="C13" t="n">
-        <v>165.2293217375025</v>
+        <v>165.2293217375026</v>
       </c>
       <c r="D13" t="n">
-        <v>147.0428702883123</v>
+        <v>147.0428702883124</v>
       </c>
       <c r="E13" t="n">
-        <v>131.0599646690647</v>
+        <v>131.0599646690648</v>
       </c>
       <c r="F13" t="n">
-        <v>116.1002051342999</v>
+        <v>116.1002051343</v>
       </c>
       <c r="G13" t="n">
-        <v>78.56669548384932</v>
+        <v>78.56669548384937</v>
       </c>
       <c r="H13" t="n">
-        <v>48.62404169601447</v>
+        <v>48.6240416960145</v>
       </c>
       <c r="I13" t="n">
         <v>30.2746602107194</v>
       </c>
       <c r="J13" t="n">
-        <v>82.68660615674435</v>
+        <v>82.68660615674432</v>
       </c>
       <c r="K13" t="n">
-        <v>215.4696777610534</v>
+        <v>215.4696777610533</v>
       </c>
       <c r="L13" t="n">
-        <v>404.751908860339</v>
+        <v>404.7519088603389</v>
       </c>
       <c r="M13" t="n">
-        <v>607.6836248308432</v>
+        <v>607.6836248308431</v>
       </c>
       <c r="N13" t="n">
-        <v>814.2992731840769</v>
+        <v>698.9821557917014</v>
       </c>
       <c r="O13" t="n">
-        <v>998.9968575084254</v>
+        <v>883.6797401160497</v>
       </c>
       <c r="P13" t="n">
-        <v>1036.861950988456</v>
+        <v>1036.861950988457</v>
       </c>
       <c r="Q13" t="n">
         <v>1099.263145444017</v>
       </c>
       <c r="R13" t="n">
-        <v>1062.188162999175</v>
+        <v>1062.188162999176</v>
       </c>
       <c r="S13" t="n">
-        <v>971.7454621109646</v>
+        <v>971.745462110965</v>
       </c>
       <c r="T13" t="n">
-        <v>874.3853558753806</v>
+        <v>874.385355875381</v>
       </c>
       <c r="U13" t="n">
-        <v>717.1166300011707</v>
+        <v>717.1166300011711</v>
       </c>
       <c r="V13" t="n">
-        <v>594.3623297584294</v>
+        <v>594.3623297584297</v>
       </c>
       <c r="W13" t="n">
-        <v>436.8753476846143</v>
+        <v>436.8753476846146</v>
       </c>
       <c r="X13" t="n">
-        <v>340.8159847497425</v>
+        <v>340.8159847497428</v>
       </c>
       <c r="Y13" t="n">
-        <v>251.953593569358</v>
+        <v>251.9535935693582</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>883.3367424329624</v>
+        <v>380.871197643831</v>
       </c>
       <c r="C14" t="n">
-        <v>646.3044134556962</v>
+        <v>380.871197643831</v>
       </c>
       <c r="D14" t="n">
-        <v>419.9689028120911</v>
+        <v>380.871197643831</v>
       </c>
       <c r="E14" t="n">
-        <v>297.5364796176336</v>
+        <v>127.0131330087325</v>
       </c>
       <c r="F14" t="n">
-        <v>297.5364796176336</v>
+        <v>127.0131330087325</v>
       </c>
       <c r="G14" t="n">
-        <v>297.5364796176336</v>
+        <v>127.0131330087325</v>
       </c>
       <c r="H14" t="n">
-        <v>91.68065610168819</v>
+        <v>91.68065610168821</v>
       </c>
       <c r="I14" t="n">
         <v>30.2746602107194</v>
@@ -5303,25 +5303,25 @@
         <v>1513.73301053597</v>
       </c>
       <c r="S14" t="n">
-        <v>1445.919343875636</v>
+        <v>1513.73301053597</v>
       </c>
       <c r="T14" t="n">
-        <v>1445.919343875636</v>
+        <v>1422.50141040614</v>
       </c>
       <c r="U14" t="n">
-        <v>1324.005012111322</v>
+        <v>1300.587078641825</v>
       </c>
       <c r="V14" t="n">
-        <v>1124.872312730897</v>
+        <v>1101.4543792614</v>
       </c>
       <c r="W14" t="n">
-        <v>1124.872312730897</v>
+        <v>880.6159119544316</v>
       </c>
       <c r="X14" t="n">
-        <v>883.3367424329624</v>
+        <v>639.0803416564972</v>
       </c>
       <c r="Y14" t="n">
-        <v>883.3367424329624</v>
+        <v>380.871197643831</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>534.0371841107939</v>
+        <v>270.1768081845029</v>
       </c>
       <c r="C15" t="n">
-        <v>359.5841548296669</v>
+        <v>227.6539668665214</v>
       </c>
       <c r="D15" t="n">
-        <v>210.6497451684156</v>
+        <v>210.6497451684157</v>
       </c>
       <c r="E15" t="n">
-        <v>51.41229016296013</v>
+        <v>51.41229016296018</v>
       </c>
       <c r="F15" t="n">
-        <v>36.80792015299064</v>
+        <v>36.80792015299067</v>
       </c>
       <c r="G15" t="n">
         <v>30.2746602107194</v>
@@ -5364,7 +5364,7 @@
         <v>508.830857636024</v>
       </c>
       <c r="M15" t="n">
-        <v>883.4797777436766</v>
+        <v>508.830857636024</v>
       </c>
       <c r="N15" t="n">
         <v>883.4797777436766</v>
@@ -5373,7 +5373,7 @@
         <v>1194.583146988458</v>
       </c>
       <c r="P15" t="n">
-        <v>1427.267960487512</v>
+        <v>1410.887144208375</v>
       </c>
       <c r="Q15" t="n">
         <v>1513.73301053597</v>
@@ -5382,7 +5382,7 @@
         <v>1429.16434099857</v>
       </c>
       <c r="S15" t="n">
-        <v>1260.7134164632</v>
+        <v>1392.643604426346</v>
       </c>
       <c r="T15" t="n">
         <v>1191.534728791683</v>
@@ -5391,16 +5391,16 @@
         <v>1095.258889117005</v>
       </c>
       <c r="V15" t="n">
-        <v>992.0369688484079</v>
+        <v>976.3111129401138</v>
       </c>
       <c r="W15" t="n">
-        <v>737.7996121202063</v>
+        <v>854.0039441750578</v>
       </c>
       <c r="X15" t="n">
-        <v>646.1524439695247</v>
+        <v>646.1524439695249</v>
       </c>
       <c r="Y15" t="n">
-        <v>570.3223331677164</v>
+        <v>438.392145204571</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>202.2353167022638</v>
+        <v>202.235316702264</v>
       </c>
       <c r="C16" t="n">
-        <v>165.2293217375025</v>
+        <v>165.2293217375026</v>
       </c>
       <c r="D16" t="n">
-        <v>147.0428702883123</v>
+        <v>147.0428702883124</v>
       </c>
       <c r="E16" t="n">
-        <v>131.0599646690647</v>
+        <v>131.0599646690648</v>
       </c>
       <c r="F16" t="n">
-        <v>116.1002051342999</v>
+        <v>116.1002051343</v>
       </c>
       <c r="G16" t="n">
-        <v>78.56669548384932</v>
+        <v>78.56669548384937</v>
       </c>
       <c r="H16" t="n">
-        <v>48.62404169601447</v>
+        <v>48.6240416960145</v>
       </c>
       <c r="I16" t="n">
         <v>30.2746602107194</v>
       </c>
       <c r="J16" t="n">
-        <v>30.2746602107194</v>
+        <v>82.68660615674432</v>
       </c>
       <c r="K16" t="n">
-        <v>163.0577318150284</v>
+        <v>215.4696777610533</v>
       </c>
       <c r="L16" t="n">
-        <v>352.339962914314</v>
+        <v>289.4347914679635</v>
       </c>
       <c r="M16" t="n">
-        <v>555.2716788848184</v>
+        <v>492.3665074384677</v>
       </c>
       <c r="N16" t="n">
-        <v>761.8873272380521</v>
+        <v>698.9821557917014</v>
       </c>
       <c r="O16" t="n">
-        <v>946.5849115624005</v>
+        <v>883.6797401160497</v>
       </c>
       <c r="P16" t="n">
-        <v>1036.861950988456</v>
+        <v>1036.861950988457</v>
       </c>
       <c r="Q16" t="n">
         <v>1099.263145444017</v>
       </c>
       <c r="R16" t="n">
-        <v>1062.188162999175</v>
+        <v>1062.188162999176</v>
       </c>
       <c r="S16" t="n">
-        <v>971.7454621109646</v>
+        <v>971.745462110965</v>
       </c>
       <c r="T16" t="n">
-        <v>874.3853558753806</v>
+        <v>874.385355875381</v>
       </c>
       <c r="U16" t="n">
-        <v>717.1166300011707</v>
+        <v>717.1166300011711</v>
       </c>
       <c r="V16" t="n">
-        <v>594.3623297584294</v>
+        <v>594.3623297584297</v>
       </c>
       <c r="W16" t="n">
-        <v>436.8753476846143</v>
+        <v>436.8753476846146</v>
       </c>
       <c r="X16" t="n">
-        <v>340.8159847497425</v>
+        <v>340.8159847497428</v>
       </c>
       <c r="Y16" t="n">
-        <v>251.953593569358</v>
+        <v>251.9535935693582</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>868.4565250949236</v>
+        <v>868.4565250949233</v>
       </c>
       <c r="C17" t="n">
-        <v>739.9280926880306</v>
+        <v>739.9280926880303</v>
       </c>
       <c r="D17" t="n">
         <v>622.0964786147987</v>
@@ -5546,7 +5546,7 @@
         <v>1513.73301053597</v>
       </c>
       <c r="U17" t="n">
-        <v>1500.322575342029</v>
+        <v>1500.322575342028</v>
       </c>
       <c r="V17" t="n">
         <v>1409.693772531976</v>
@@ -5555,10 +5555,10 @@
         <v>1297.359201795381</v>
       </c>
       <c r="X17" t="n">
-        <v>1164.327528067819</v>
+        <v>1164.32752806782</v>
       </c>
       <c r="Y17" t="n">
-        <v>1014.622280625526</v>
+        <v>1014.622280625527</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>659.4341121316683</v>
+        <v>279.524939842974</v>
       </c>
       <c r="C18" t="n">
-        <v>484.9810828505412</v>
+        <v>279.524939842974</v>
       </c>
       <c r="D18" t="n">
-        <v>336.0466731892899</v>
+        <v>279.524939842974</v>
       </c>
       <c r="E18" t="n">
-        <v>176.8092181838344</v>
+        <v>279.524939842974</v>
       </c>
       <c r="F18" t="n">
-        <v>30.2746602107194</v>
+        <v>279.524939842974</v>
       </c>
       <c r="G18" t="n">
-        <v>30.2746602107194</v>
+        <v>141.0614919375573</v>
       </c>
       <c r="H18" t="n">
         <v>30.2746602107194</v>
@@ -5595,16 +5595,16 @@
         <v>54.29414604109613</v>
       </c>
       <c r="K18" t="n">
-        <v>221.9681162074349</v>
+        <v>117.8011212492348</v>
       </c>
       <c r="L18" t="n">
-        <v>221.9681162074349</v>
+        <v>117.8011212492348</v>
       </c>
       <c r="M18" t="n">
-        <v>596.6170363150875</v>
+        <v>492.4500413568874</v>
       </c>
       <c r="N18" t="n">
-        <v>971.2659564227401</v>
+        <v>867.09896146454</v>
       </c>
       <c r="O18" t="n">
         <v>1178.202330709321</v>
@@ -5619,25 +5619,25 @@
         <v>1429.16434099857</v>
       </c>
       <c r="S18" t="n">
-        <v>1429.16434099857</v>
+        <v>1260.7134164632</v>
       </c>
       <c r="T18" t="n">
-        <v>1429.16434099857</v>
+        <v>1059.604540828538</v>
       </c>
       <c r="U18" t="n">
-        <v>1200.958313360746</v>
+        <v>831.3985131907141</v>
       </c>
       <c r="V18" t="n">
-        <v>965.8062051290035</v>
+        <v>701.9776335912437</v>
       </c>
       <c r="W18" t="n">
-        <v>952.0029329343205</v>
+        <v>447.7402768630421</v>
       </c>
       <c r="X18" t="n">
-        <v>867.1944108966222</v>
+        <v>447.7402768630421</v>
       </c>
       <c r="Y18" t="n">
-        <v>659.4341121316683</v>
+        <v>447.7402768630421</v>
       </c>
     </row>
     <row r="19">
@@ -5692,22 +5692,22 @@
         <v>323.9384590987336</v>
       </c>
       <c r="Q19" t="n">
-        <v>255.676462601317</v>
+        <v>323.9384590987336</v>
       </c>
       <c r="R19" t="n">
-        <v>142.2729786903664</v>
+        <v>323.9384590987336</v>
       </c>
       <c r="S19" t="n">
-        <v>142.2729786903664</v>
+        <v>323.9384590987336</v>
       </c>
       <c r="T19" t="n">
-        <v>142.2729786903664</v>
+        <v>323.9384590987336</v>
       </c>
       <c r="U19" t="n">
-        <v>93.50814938652964</v>
+        <v>275.1736297948967</v>
       </c>
       <c r="V19" t="n">
-        <v>79.25774571416139</v>
+        <v>79.25774571416143</v>
       </c>
       <c r="W19" t="n">
         <v>30.2746602107194</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>868.4565250949237</v>
+        <v>868.4565250949238</v>
       </c>
       <c r="C20" t="n">
-        <v>739.9280926880306</v>
+        <v>739.9280926880307</v>
       </c>
       <c r="D20" t="n">
-        <v>622.0964786147987</v>
+        <v>622.0964786147988</v>
       </c>
       <c r="E20" t="n">
-        <v>476.7423105500731</v>
+        <v>476.7423105500732</v>
       </c>
       <c r="F20" t="n">
-        <v>306.1904902939841</v>
+        <v>306.190490293984</v>
       </c>
       <c r="G20" t="n">
         <v>127.6265871562919</v>
@@ -5750,10 +5750,10 @@
         <v>30.2746602107194</v>
       </c>
       <c r="J20" t="n">
-        <v>60.01453471024342</v>
+        <v>60.01453471024348</v>
       </c>
       <c r="K20" t="n">
-        <v>225.3317015655474</v>
+        <v>225.3317015655475</v>
       </c>
       <c r="L20" t="n">
         <v>482.698892935633</v>
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>396.6083895328154</v>
+        <v>585.2969528215447</v>
       </c>
       <c r="C21" t="n">
-        <v>222.1553602516884</v>
+        <v>585.2969528215447</v>
       </c>
       <c r="D21" t="n">
-        <v>222.1553602516884</v>
+        <v>585.2969528215447</v>
       </c>
       <c r="E21" t="n">
-        <v>222.1553602516884</v>
+        <v>426.0594978160891</v>
       </c>
       <c r="F21" t="n">
-        <v>222.1553602516884</v>
+        <v>279.524939842974</v>
       </c>
       <c r="G21" t="n">
-        <v>222.1553602516884</v>
+        <v>141.0614919375573</v>
       </c>
       <c r="H21" t="n">
-        <v>111.3685285248505</v>
+        <v>30.2746602107194</v>
       </c>
       <c r="I21" t="n">
         <v>30.2746602107194</v>
@@ -5835,16 +5835,16 @@
         <v>221.9681162074349</v>
       </c>
       <c r="L21" t="n">
-        <v>221.9681162074349</v>
+        <v>508.830857636024</v>
       </c>
       <c r="M21" t="n">
-        <v>492.4500413568874</v>
+        <v>883.4797777436766</v>
       </c>
       <c r="N21" t="n">
-        <v>867.09896146454</v>
+        <v>1258.128697851329</v>
       </c>
       <c r="O21" t="n">
-        <v>1178.202330709321</v>
+        <v>1410.887144208375</v>
       </c>
       <c r="P21" t="n">
         <v>1410.887144208375</v>
@@ -5859,22 +5859,22 @@
         <v>1260.7134164632</v>
       </c>
       <c r="T21" t="n">
-        <v>1234.672882251572</v>
+        <v>1059.604540828538</v>
       </c>
       <c r="U21" t="n">
-        <v>1234.672882251572</v>
+        <v>831.3985131907141</v>
       </c>
       <c r="V21" t="n">
-        <v>1234.672882251572</v>
+        <v>599.1002250162277</v>
       </c>
       <c r="W21" t="n">
-        <v>980.4355255233702</v>
+        <v>585.2969528215447</v>
       </c>
       <c r="X21" t="n">
-        <v>772.5840253178374</v>
+        <v>585.2969528215447</v>
       </c>
       <c r="Y21" t="n">
-        <v>564.8237265528835</v>
+        <v>585.2969528215447</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>211.9401406190864</v>
+        <v>30.2746602107194</v>
       </c>
       <c r="C22" t="n">
-        <v>211.9401406190864</v>
+        <v>30.2746602107194</v>
       </c>
       <c r="D22" t="n">
-        <v>199.7383578243156</v>
+        <v>30.2746602107194</v>
       </c>
       <c r="E22" t="n">
-        <v>199.7383578243156</v>
+        <v>30.2746602107194</v>
       </c>
       <c r="F22" t="n">
-        <v>199.7383578243156</v>
+        <v>30.2746602107194</v>
       </c>
       <c r="G22" t="n">
         <v>30.2746602107194</v>
@@ -5941,19 +5941,19 @@
         <v>323.9384590987336</v>
       </c>
       <c r="U22" t="n">
-        <v>275.1736297948967</v>
+        <v>93.50814938652971</v>
       </c>
       <c r="V22" t="n">
-        <v>260.9232261225284</v>
+        <v>79.25774571416143</v>
       </c>
       <c r="W22" t="n">
-        <v>211.9401406190864</v>
+        <v>30.2746602107194</v>
       </c>
       <c r="X22" t="n">
-        <v>211.9401406190864</v>
+        <v>30.2746602107194</v>
       </c>
       <c r="Y22" t="n">
-        <v>211.9401406190864</v>
+        <v>30.2746602107194</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>868.4565250949238</v>
+        <v>868.4565250949239</v>
       </c>
       <c r="C23" t="n">
-        <v>739.9280926880307</v>
+        <v>739.9280926880308</v>
       </c>
       <c r="D23" t="n">
-        <v>622.0964786147988</v>
+        <v>622.0964786147989</v>
       </c>
       <c r="E23" t="n">
-        <v>476.7423105500731</v>
+        <v>476.7423105500733</v>
       </c>
       <c r="F23" t="n">
-        <v>306.1904902939842</v>
+        <v>306.1904902939843</v>
       </c>
       <c r="G23" t="n">
         <v>127.6265871562919</v>
@@ -6014,10 +6014,10 @@
         <v>1513.73301053597</v>
       </c>
       <c r="S23" t="n">
-        <v>1513.733010535971</v>
+        <v>1513.73301053597</v>
       </c>
       <c r="T23" t="n">
-        <v>1513.733010535971</v>
+        <v>1513.73301053597</v>
       </c>
       <c r="U23" t="n">
         <v>1500.322575342029</v>
@@ -6026,7 +6026,7 @@
         <v>1409.693772531977</v>
       </c>
       <c r="W23" t="n">
-        <v>1297.359201795381</v>
+        <v>1297.359201795382</v>
       </c>
       <c r="X23" t="n">
         <v>1164.32752806782</v>
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>440.5164095854712</v>
+        <v>336.0466731892899</v>
       </c>
       <c r="C24" t="n">
-        <v>338.4465248774262</v>
+        <v>336.0466731892899</v>
       </c>
       <c r="D24" t="n">
-        <v>189.5121152161749</v>
+        <v>336.0466731892899</v>
       </c>
       <c r="E24" t="n">
-        <v>30.2746602107194</v>
+        <v>176.8092181838344</v>
       </c>
       <c r="F24" t="n">
         <v>30.2746602107194</v>
@@ -6069,16 +6069,16 @@
         <v>54.29414604109613</v>
       </c>
       <c r="K24" t="n">
-        <v>117.8011212492348</v>
+        <v>221.9681162074349</v>
       </c>
       <c r="L24" t="n">
-        <v>117.8011212492348</v>
+        <v>508.830857636024</v>
       </c>
       <c r="M24" t="n">
-        <v>492.4500413568874</v>
+        <v>883.4797777436766</v>
       </c>
       <c r="N24" t="n">
-        <v>867.09896146454</v>
+        <v>883.4797777436766</v>
       </c>
       <c r="O24" t="n">
         <v>1178.202330709321</v>
@@ -6090,28 +6090,28 @@
         <v>1513.73301053597</v>
       </c>
       <c r="R24" t="n">
-        <v>1513.73301053597</v>
+        <v>1429.16434099857</v>
       </c>
       <c r="S24" t="n">
-        <v>1513.73301053597</v>
+        <v>1260.7134164632</v>
       </c>
       <c r="T24" t="n">
-        <v>1513.73301053597</v>
+        <v>1260.7134164632</v>
       </c>
       <c r="U24" t="n">
-        <v>1513.73301053597</v>
+        <v>1032.507388825376</v>
       </c>
       <c r="V24" t="n">
-        <v>1278.580902304227</v>
+        <v>1032.507388825376</v>
       </c>
       <c r="W24" t="n">
-        <v>1024.343545576026</v>
+        <v>778.2700320971749</v>
       </c>
       <c r="X24" t="n">
-        <v>816.4920453704931</v>
+        <v>570.418531891642</v>
       </c>
       <c r="Y24" t="n">
-        <v>608.7317466055392</v>
+        <v>362.6582331266881</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>199.7383578243156</v>
+        <v>30.2746602107194</v>
       </c>
       <c r="C25" t="n">
-        <v>199.7383578243156</v>
+        <v>30.2746602107194</v>
       </c>
       <c r="D25" t="n">
-        <v>199.7383578243156</v>
+        <v>30.2746602107194</v>
       </c>
       <c r="E25" t="n">
-        <v>199.7383578243156</v>
+        <v>30.2746602107194</v>
       </c>
       <c r="F25" t="n">
-        <v>199.7383578243156</v>
+        <v>30.2746602107194</v>
       </c>
       <c r="G25" t="n">
         <v>30.2746602107194</v>
@@ -6178,19 +6178,19 @@
         <v>323.9384590987336</v>
       </c>
       <c r="U25" t="n">
-        <v>262.9718470001259</v>
+        <v>275.1736297948967</v>
       </c>
       <c r="V25" t="n">
-        <v>248.7214433277576</v>
+        <v>260.9232261225284</v>
       </c>
       <c r="W25" t="n">
-        <v>199.7383578243156</v>
+        <v>211.9231250409591</v>
       </c>
       <c r="X25" t="n">
-        <v>199.7383578243156</v>
+        <v>211.9231250409591</v>
       </c>
       <c r="Y25" t="n">
-        <v>199.7383578243156</v>
+        <v>211.9231250409591</v>
       </c>
     </row>
     <row r="26">
@@ -6203,22 +6203,22 @@
         <v>1465.852887048769</v>
       </c>
       <c r="C26" t="n">
-        <v>1248.818087893108</v>
+        <v>1248.818087893107</v>
       </c>
       <c r="D26" t="n">
-        <v>1042.480107071107</v>
+        <v>1042.480107071106</v>
       </c>
       <c r="E26" t="n">
-        <v>808.6195722576125</v>
+        <v>808.619572257612</v>
       </c>
       <c r="F26" t="n">
-        <v>549.5613852527548</v>
+        <v>549.5613852527543</v>
       </c>
       <c r="G26" t="n">
-        <v>282.4911153662938</v>
+        <v>282.4911153662934</v>
       </c>
       <c r="H26" t="n">
-        <v>96.63282167195257</v>
+        <v>96.63282167195214</v>
       </c>
       <c r="I26" t="n">
         <v>55.22435560258768</v>
@@ -6227,13 +6227,13 @@
         <v>233.8685863029451</v>
       </c>
       <c r="K26" t="n">
-        <v>548.0901093590825</v>
+        <v>548.0901093590824</v>
       </c>
       <c r="L26" t="n">
-        <v>954.3616569300013</v>
+        <v>954.3616569300012</v>
       </c>
       <c r="M26" t="n">
-        <v>1406.243148351838</v>
+        <v>1406.243148351839</v>
       </c>
       <c r="N26" t="n">
         <v>1848.395129028582</v>
@@ -6254,13 +6254,13 @@
         <v>2713.401643290654</v>
       </c>
       <c r="T26" t="n">
-        <v>2642.167572982429</v>
+        <v>2642.167572982428</v>
       </c>
       <c r="U26" t="n">
-        <v>2540.250771039719</v>
+        <v>2540.250771039718</v>
       </c>
       <c r="V26" t="n">
-        <v>2361.115601480898</v>
+        <v>2361.115601480897</v>
       </c>
       <c r="W26" t="n">
         <v>2160.274663995533</v>
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>486.237401736675</v>
+        <v>385.9215317656716</v>
       </c>
       <c r="C27" t="n">
-        <v>311.784372455548</v>
+        <v>211.4685024845446</v>
       </c>
       <c r="D27" t="n">
-        <v>311.784372455548</v>
+        <v>62.53409282329332</v>
       </c>
       <c r="E27" t="n">
-        <v>304.4746352348424</v>
+        <v>55.22435560258768</v>
       </c>
       <c r="F27" t="n">
-        <v>304.4746352348424</v>
+        <v>55.22435560258768</v>
       </c>
       <c r="G27" t="n">
-        <v>166.0111873294256</v>
+        <v>55.22435560258768</v>
       </c>
       <c r="H27" t="n">
         <v>55.22435560258768</v>
@@ -6333,22 +6333,22 @@
         <v>1726.806754033217</v>
       </c>
       <c r="T27" t="n">
-        <v>1525.697878398554</v>
+        <v>1677.625596183304</v>
       </c>
       <c r="U27" t="n">
         <v>1449.41956854548</v>
       </c>
       <c r="V27" t="n">
-        <v>1214.267460313738</v>
+        <v>1223.986024484428</v>
       </c>
       <c r="W27" t="n">
-        <v>960.0301035855362</v>
+        <v>969.7486677562263</v>
       </c>
       <c r="X27" t="n">
-        <v>862.2130375216968</v>
+        <v>761.8971675506934</v>
       </c>
       <c r="Y27" t="n">
-        <v>654.452738756743</v>
+        <v>554.1368687857396</v>
       </c>
     </row>
     <row r="28">
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>94.77640588269014</v>
+        <v>89.06663478915721</v>
       </c>
       <c r="C28" t="n">
-        <v>77.7679407395331</v>
+        <v>72.05816964600015</v>
       </c>
       <c r="D28" t="n">
-        <v>77.7679407395331</v>
+        <v>73.83320755880325</v>
       </c>
       <c r="E28" t="n">
         <v>77.7679407395331</v>
@@ -6385,49 +6385,49 @@
         <v>55.22435560258768</v>
       </c>
       <c r="K28" t="n">
-        <v>207.6070061850511</v>
+        <v>69.21812202758738</v>
       </c>
       <c r="L28" t="n">
-        <v>267.5844600616578</v>
+        <v>278.0999321050274</v>
       </c>
       <c r="M28" t="n">
-        <v>490.1157550103164</v>
+        <v>351.7268708528527</v>
       </c>
       <c r="N28" t="n">
-        <v>567.4266261408712</v>
+        <v>577.9420981842409</v>
       </c>
       <c r="O28" t="n">
-        <v>622.8194332425406</v>
+        <v>633.3349052859103</v>
       </c>
       <c r="P28" t="n">
-        <v>795.6012230931018</v>
+        <v>806.1166951364714</v>
       </c>
       <c r="Q28" t="n">
-        <v>811.8264662300044</v>
+        <v>806.1166951364714</v>
       </c>
       <c r="R28" t="n">
-        <v>794.7490136067673</v>
+        <v>789.0392425132344</v>
       </c>
       <c r="S28" t="n">
-        <v>724.3038425401608</v>
+        <v>718.5940714466278</v>
       </c>
       <c r="T28" t="n">
-        <v>646.9412661261811</v>
+        <v>641.2314950326481</v>
       </c>
       <c r="U28" t="n">
-        <v>509.6700700735755</v>
+        <v>503.9602989800426</v>
       </c>
       <c r="V28" t="n">
-        <v>406.9132996524385</v>
+        <v>401.2035285589055</v>
       </c>
       <c r="W28" t="n">
-        <v>269.4238474002277</v>
+        <v>263.7140763066948</v>
       </c>
       <c r="X28" t="n">
-        <v>193.3620142869602</v>
+        <v>187.6522431934273</v>
       </c>
       <c r="Y28" t="n">
-        <v>124.49715292818</v>
+        <v>118.7873818346471</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1465.852887048768</v>
+        <v>1465.852887048769</v>
       </c>
       <c r="C29" t="n">
         <v>1248.818087893107</v>
@@ -6446,52 +6446,52 @@
         <v>1042.480107071106</v>
       </c>
       <c r="E29" t="n">
-        <v>808.6195722576117</v>
+        <v>808.6195722576119</v>
       </c>
       <c r="F29" t="n">
-        <v>549.561385252754</v>
+        <v>549.5613852527542</v>
       </c>
       <c r="G29" t="n">
-        <v>282.4911153662931</v>
+        <v>282.4911153662933</v>
       </c>
       <c r="H29" t="n">
-        <v>96.63282167195217</v>
+        <v>96.63282167195213</v>
       </c>
       <c r="I29" t="n">
-        <v>55.22435560258768</v>
+        <v>55.22435560258766</v>
       </c>
       <c r="J29" t="n">
-        <v>233.8685863029447</v>
+        <v>233.868586302945</v>
       </c>
       <c r="K29" t="n">
-        <v>548.090109359082</v>
+        <v>548.0901093590824</v>
       </c>
       <c r="L29" t="n">
-        <v>954.3616569300007</v>
+        <v>954.3616569300012</v>
       </c>
       <c r="M29" t="n">
         <v>1406.243148351838</v>
       </c>
       <c r="N29" t="n">
-        <v>1848.395129028581</v>
+        <v>1848.395129028582</v>
       </c>
       <c r="O29" t="n">
-        <v>2229.017263667751</v>
+        <v>2229.017263667752</v>
       </c>
       <c r="P29" t="n">
-        <v>2538.012999877896</v>
+        <v>2538.012999877897</v>
       </c>
       <c r="Q29" t="n">
         <v>2729.917555534505</v>
       </c>
       <c r="R29" t="n">
-        <v>2761.217780129384</v>
+        <v>2761.217780129383</v>
       </c>
       <c r="S29" t="n">
         <v>2713.401643290654</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.167572982429</v>
+        <v>2642.167572982428</v>
       </c>
       <c r="U29" t="n">
         <v>2540.250771039718</v>
@@ -6506,7 +6506,7 @@
         <v>1938.736623519203</v>
       </c>
       <c r="Y29" t="n">
-        <v>1700.52500932814</v>
+        <v>1700.525009328141</v>
       </c>
     </row>
     <row r="30">
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>676.3126974558382</v>
+        <v>499.7016716160081</v>
       </c>
       <c r="C30" t="n">
-        <v>501.8596681747113</v>
+        <v>325.2486423348811</v>
       </c>
       <c r="D30" t="n">
-        <v>352.92525851346</v>
+        <v>325.2486423348811</v>
       </c>
       <c r="E30" t="n">
-        <v>193.6878035080045</v>
+        <v>166.0111873294256</v>
       </c>
       <c r="F30" t="n">
-        <v>193.6878035080045</v>
+        <v>166.0111873294256</v>
       </c>
       <c r="G30" t="n">
-        <v>55.22435560258768</v>
+        <v>166.0111873294256</v>
       </c>
       <c r="H30" t="n">
-        <v>55.22435560258768</v>
+        <v>55.22435560258766</v>
       </c>
       <c r="I30" t="n">
-        <v>55.22435560258768</v>
+        <v>55.22435560258766</v>
       </c>
       <c r="J30" t="n">
-        <v>79.2438414329644</v>
+        <v>79.24384143296439</v>
       </c>
       <c r="K30" t="n">
         <v>246.9178115993031</v>
@@ -6564,28 +6564,28 @@
         <v>1979.826348105987</v>
       </c>
       <c r="R30" t="n">
-        <v>1979.826348105987</v>
+        <v>1895.257678568586</v>
       </c>
       <c r="S30" t="n">
-        <v>1811.375423570617</v>
+        <v>1726.806754033217</v>
       </c>
       <c r="T30" t="n">
-        <v>1762.194265720704</v>
+        <v>1525.697878398554</v>
       </c>
       <c r="U30" t="n">
-        <v>1597.601580621587</v>
+        <v>1297.491850760731</v>
       </c>
       <c r="V30" t="n">
-        <v>1362.449472389845</v>
+        <v>1214.267460313738</v>
       </c>
       <c r="W30" t="n">
-        <v>1108.212115661643</v>
+        <v>1083.528807606563</v>
       </c>
       <c r="X30" t="n">
-        <v>900.3606154561103</v>
+        <v>875.67730740103</v>
       </c>
       <c r="Y30" t="n">
-        <v>692.6003166911564</v>
+        <v>667.9170086360762</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.93888662801845</v>
+        <v>89.06663478915718</v>
       </c>
       <c r="C31" t="n">
-        <v>80.93042148486141</v>
+        <v>72.05816964600012</v>
       </c>
       <c r="D31" t="n">
-        <v>82.70545939766451</v>
+        <v>73.83320755880322</v>
       </c>
       <c r="E31" t="n">
-        <v>82.70545939766451</v>
+        <v>77.76794073953309</v>
       </c>
       <c r="F31" t="n">
-        <v>82.70545939766451</v>
+        <v>82.7054593976645</v>
       </c>
       <c r="G31" t="n">
-        <v>65.1694795688182</v>
+        <v>65.16947956881819</v>
       </c>
       <c r="H31" t="n">
-        <v>55.22435560258768</v>
+        <v>55.22435560258766</v>
       </c>
       <c r="I31" t="n">
-        <v>56.83970578700437</v>
+        <v>55.22435560258766</v>
       </c>
       <c r="J31" t="n">
-        <v>128.8512307111837</v>
+        <v>65.73982764595718</v>
       </c>
       <c r="K31" t="n">
-        <v>132.3295250928138</v>
+        <v>218.1224782284206</v>
       </c>
       <c r="L31" t="n">
-        <v>204.9714105101732</v>
+        <v>278.0999321050273</v>
       </c>
       <c r="M31" t="n">
-        <v>278.5983492579985</v>
+        <v>500.631227053686</v>
       </c>
       <c r="N31" t="n">
-        <v>355.9092203885533</v>
+        <v>577.9420981842408</v>
       </c>
       <c r="O31" t="n">
-        <v>560.2063836910561</v>
+        <v>633.3349052859102</v>
       </c>
       <c r="P31" t="n">
-        <v>732.9881735416172</v>
+        <v>806.1166951364713</v>
       </c>
       <c r="Q31" t="n">
-        <v>814.9889469753326</v>
+        <v>806.1166951364713</v>
       </c>
       <c r="R31" t="n">
-        <v>797.9114943520956</v>
+        <v>789.0392425132343</v>
       </c>
       <c r="S31" t="n">
-        <v>727.466323285489</v>
+        <v>718.5940714466277</v>
       </c>
       <c r="T31" t="n">
-        <v>650.1037468715093</v>
+        <v>641.231495032648</v>
       </c>
       <c r="U31" t="n">
-        <v>512.8325508189038</v>
+        <v>503.9602989800425</v>
       </c>
       <c r="V31" t="n">
-        <v>410.0757803977668</v>
+        <v>401.2035285589055</v>
       </c>
       <c r="W31" t="n">
-        <v>272.586328145556</v>
+        <v>263.7140763066947</v>
       </c>
       <c r="X31" t="n">
-        <v>196.5244950322885</v>
+        <v>187.6522431934272</v>
       </c>
       <c r="Y31" t="n">
-        <v>127.6596336735083</v>
+        <v>118.787381834647</v>
       </c>
     </row>
     <row r="32">
@@ -6683,49 +6683,49 @@
         <v>1030.795094478625</v>
       </c>
       <c r="E32" t="n">
-        <v>799.1367351152523</v>
+        <v>799.1367351152528</v>
       </c>
       <c r="F32" t="n">
-        <v>542.280723560516</v>
+        <v>542.2807235605164</v>
       </c>
       <c r="G32" t="n">
-        <v>277.4126291241764</v>
+        <v>277.4126291241769</v>
       </c>
       <c r="H32" t="n">
-        <v>93.75651087995691</v>
+        <v>93.75651087995686</v>
       </c>
       <c r="I32" t="n">
-        <v>54.55022026071379</v>
+        <v>54.55022026071378</v>
       </c>
       <c r="J32" t="n">
-        <v>235.3528031197351</v>
+        <v>235.3528031197352</v>
       </c>
       <c r="K32" t="n">
-        <v>551.7326783345363</v>
+        <v>499.2748771547396</v>
       </c>
       <c r="L32" t="n">
-        <v>960.1625780641191</v>
+        <v>907.7047768843224</v>
       </c>
       <c r="M32" t="n">
-        <v>1414.20242164462</v>
+        <v>1361.744620464824</v>
       </c>
       <c r="N32" t="n">
-        <v>1858.512754480028</v>
+        <v>1806.054953300231</v>
       </c>
       <c r="O32" t="n">
-        <v>2241.293241277861</v>
+        <v>2188.835440098065</v>
       </c>
       <c r="P32" t="n">
         <v>2499.989528466874</v>
       </c>
       <c r="Q32" t="n">
-        <v>2694.052436282147</v>
+        <v>2694.052436282146</v>
       </c>
       <c r="R32" t="n">
         <v>2727.511013035689</v>
       </c>
       <c r="S32" t="n">
-        <v>2681.897051647081</v>
+        <v>2681.89705164708</v>
       </c>
       <c r="T32" t="n">
         <v>2612.865156788976</v>
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>616.4295704755002</v>
+        <v>462.2996772406292</v>
       </c>
       <c r="C33" t="n">
-        <v>596.1064344292444</v>
+        <v>287.8466479595022</v>
       </c>
       <c r="D33" t="n">
-        <v>596.1064344292444</v>
+        <v>138.9122382982509</v>
       </c>
       <c r="E33" t="n">
-        <v>436.8689794237889</v>
+        <v>133.8046765276667</v>
       </c>
       <c r="F33" t="n">
-        <v>290.3344214506739</v>
+        <v>54.55022026071378</v>
       </c>
       <c r="G33" t="n">
-        <v>165.3370519875517</v>
+        <v>54.55022026071378</v>
       </c>
       <c r="H33" t="n">
-        <v>54.55022026071379</v>
+        <v>54.55022026071378</v>
       </c>
       <c r="I33" t="n">
-        <v>54.55022026071379</v>
+        <v>54.55022026071378</v>
       </c>
       <c r="J33" t="n">
-        <v>78.56970609109051</v>
+        <v>78.5697060910905</v>
       </c>
       <c r="K33" t="n">
         <v>246.2436762574292</v>
@@ -6804,25 +6804,25 @@
         <v>1979.152212764113</v>
       </c>
       <c r="S33" t="n">
-        <v>1964.831181463614</v>
+        <v>1810.701288228743</v>
       </c>
       <c r="T33" t="n">
-        <v>1763.722305828952</v>
+        <v>1609.592412594081</v>
       </c>
       <c r="U33" t="n">
-        <v>1535.516278191128</v>
+        <v>1381.386384956257</v>
       </c>
       <c r="V33" t="n">
-        <v>1300.364169959385</v>
+        <v>1146.234276724514</v>
       </c>
       <c r="W33" t="n">
-        <v>1200.256706466055</v>
+        <v>891.9969199963127</v>
       </c>
       <c r="X33" t="n">
-        <v>992.4052062605222</v>
+        <v>684.1454197907799</v>
       </c>
       <c r="Y33" t="n">
-        <v>784.6449074955683</v>
+        <v>476.385121025826</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>81.40400196032125</v>
+        <v>75.31091662092727</v>
       </c>
       <c r="C34" t="n">
-        <v>66.59771226728556</v>
+        <v>60.5046269278916</v>
       </c>
       <c r="D34" t="n">
-        <v>70.53110233875259</v>
+        <v>64.43801699935867</v>
       </c>
       <c r="E34" t="n">
-        <v>70.53110233875259</v>
+        <v>70.53110233875249</v>
       </c>
       <c r="F34" t="n">
-        <v>77.62697315554793</v>
+        <v>77.62697315554786</v>
       </c>
       <c r="G34" t="n">
-        <v>62.29316877682297</v>
+        <v>62.29316877682293</v>
       </c>
       <c r="H34" t="n">
-        <v>54.55022026071379</v>
+        <v>54.55022026071378</v>
       </c>
       <c r="I34" t="n">
-        <v>54.55022026071379</v>
+        <v>54.55022026071378</v>
       </c>
       <c r="J34" t="n">
-        <v>54.55022026071379</v>
+        <v>54.55022026071378</v>
       </c>
       <c r="K34" t="n">
-        <v>186.3235620311646</v>
+        <v>209.0912230018411</v>
       </c>
       <c r="L34" t="n">
-        <v>246.3010159077713</v>
+        <v>269.0686768784478</v>
       </c>
       <c r="M34" t="n">
-        <v>470.9906630150939</v>
+        <v>342.6956156262731</v>
       </c>
       <c r="N34" t="n">
-        <v>699.364242505146</v>
+        <v>420.0064867568279</v>
       </c>
       <c r="O34" t="n">
-        <v>754.7570496068154</v>
+        <v>597.6012559079238</v>
       </c>
       <c r="P34" t="n">
-        <v>778.6344832565433</v>
+        <v>772.541397917149</v>
       </c>
       <c r="Q34" t="n">
-        <v>778.6344832565433</v>
+        <v>772.541397917149</v>
       </c>
       <c r="R34" t="n">
-        <v>763.7592060834276</v>
+        <v>757.6661207440333</v>
       </c>
       <c r="S34" t="n">
-        <v>695.5162104669423</v>
+        <v>689.4231251275481</v>
       </c>
       <c r="T34" t="n">
-        <v>620.3558095030841</v>
+        <v>614.2627241636899</v>
       </c>
       <c r="U34" t="n">
-        <v>485.2867889005998</v>
+        <v>479.1937035612057</v>
       </c>
       <c r="V34" t="n">
-        <v>384.7321939295841</v>
+        <v>378.6391085901901</v>
       </c>
       <c r="W34" t="n">
-        <v>249.4449171274947</v>
+        <v>243.3518317881007</v>
       </c>
       <c r="X34" t="n">
-        <v>175.5852594643486</v>
+        <v>169.4921741249546</v>
       </c>
       <c r="Y34" t="n">
-        <v>108.9225735556897</v>
+        <v>102.8294882162957</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1089.036043622727</v>
+        <v>1089.036043622728</v>
       </c>
       <c r="C35" t="n">
-        <v>925.2448467067038</v>
+        <v>925.2448467067047</v>
       </c>
       <c r="D35" t="n">
-        <v>772.150468124342</v>
+        <v>772.1504681243428</v>
       </c>
       <c r="E35" t="n">
-        <v>591.5335355504864</v>
+        <v>591.533535550487</v>
       </c>
       <c r="F35" t="n">
-        <v>385.7189507852674</v>
+        <v>385.718950785268</v>
       </c>
       <c r="G35" t="n">
-        <v>171.8922831384453</v>
+        <v>171.8922831384454</v>
       </c>
       <c r="H35" t="n">
-        <v>39.27759168374281</v>
+        <v>39.27759168374283</v>
       </c>
       <c r="I35" t="n">
-        <v>39.27759168374281</v>
+        <v>39.27759168374283</v>
       </c>
       <c r="J35" t="n">
-        <v>69.0174661832669</v>
+        <v>69.01746618326692</v>
       </c>
       <c r="K35" t="n">
-        <v>273.3014537049115</v>
+        <v>435.4230437944741</v>
       </c>
       <c r="L35" t="n">
-        <v>731.7570558309003</v>
+        <v>726.4375969914704</v>
       </c>
       <c r="M35" t="n">
-        <v>1034.734191051904</v>
+        <v>1029.414732212475</v>
       </c>
       <c r="N35" t="n">
-        <v>1327.981815527814</v>
+        <v>1322.662356688384</v>
       </c>
       <c r="O35" t="n">
-        <v>1760.788004722054</v>
+        <v>1755.468545882624</v>
       </c>
       <c r="P35" t="n">
-        <v>1920.879384731365</v>
+        <v>1915.559925891936</v>
       </c>
       <c r="Q35" t="n">
-        <v>1963.879584187141</v>
+        <v>1958.560125347711</v>
       </c>
       <c r="R35" t="n">
-        <v>1963.879584187141</v>
+        <v>1958.560125347711</v>
       </c>
       <c r="S35" t="n">
-        <v>1963.879584187141</v>
+        <v>1963.879584187142</v>
       </c>
       <c r="T35" t="n">
-        <v>1945.889116118553</v>
+        <v>1945.889116118555</v>
       </c>
       <c r="U35" t="n">
-        <v>1897.215916415482</v>
+        <v>1897.215916415483</v>
       </c>
       <c r="V35" t="n">
-        <v>1771.3243490963</v>
+        <v>1771.324349096301</v>
       </c>
       <c r="W35" t="n">
-        <v>1623.727013850575</v>
+        <v>1623.727013850576</v>
       </c>
       <c r="X35" t="n">
-        <v>1455.432575613883</v>
+        <v>1455.432575613884</v>
       </c>
       <c r="Y35" t="n">
-        <v>1270.46456366246</v>
+        <v>1270.464563662461</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>493.9840143235646</v>
+        <v>786.8864629602317</v>
       </c>
       <c r="C36" t="n">
-        <v>493.9840143235646</v>
+        <v>612.4334336791047</v>
       </c>
       <c r="D36" t="n">
-        <v>345.0496046623134</v>
+        <v>463.4990240178535</v>
       </c>
       <c r="E36" t="n">
-        <v>185.8121496568579</v>
+        <v>304.261569012398</v>
       </c>
       <c r="F36" t="n">
-        <v>39.27759168374281</v>
+        <v>288.5278713159975</v>
       </c>
       <c r="G36" t="n">
-        <v>39.27759168374281</v>
+        <v>150.0644234105807</v>
       </c>
       <c r="H36" t="n">
-        <v>39.27759168374281</v>
+        <v>39.27759168374283</v>
       </c>
       <c r="I36" t="n">
-        <v>39.27759168374281</v>
+        <v>39.27759168374283</v>
       </c>
       <c r="J36" t="n">
         <v>63.29707751411954</v>
@@ -7020,46 +7020,46 @@
         <v>230.9710476804583</v>
       </c>
       <c r="L36" t="n">
-        <v>517.8337891090463</v>
+        <v>517.8337891090474</v>
       </c>
       <c r="M36" t="n">
-        <v>904.5682995551215</v>
+        <v>904.5682995551226</v>
       </c>
       <c r="N36" t="n">
-        <v>1317.24553511571</v>
+        <v>1317.245535115712</v>
       </c>
       <c r="O36" t="n">
-        <v>1628.348904360492</v>
+        <v>1628.348904360493</v>
       </c>
       <c r="P36" t="n">
-        <v>1861.033717859546</v>
+        <v>1861.033717859547</v>
       </c>
       <c r="Q36" t="n">
-        <v>1963.879584187141</v>
+        <v>1963.879584187142</v>
       </c>
       <c r="R36" t="n">
-        <v>1959.795123057531</v>
+        <v>1879.310914649741</v>
       </c>
       <c r="S36" t="n">
-        <v>1791.344198522161</v>
+        <v>1710.859990114372</v>
       </c>
       <c r="T36" t="n">
-        <v>1590.235322887499</v>
+        <v>1509.751114479709</v>
       </c>
       <c r="U36" t="n">
-        <v>1567.200615274064</v>
+        <v>1281.545086841886</v>
       </c>
       <c r="V36" t="n">
-        <v>1332.048507042321</v>
+        <v>1251.564298634531</v>
       </c>
       <c r="W36" t="n">
-        <v>1077.811150314119</v>
+        <v>997.3269419063299</v>
       </c>
       <c r="X36" t="n">
-        <v>869.9596501085866</v>
+        <v>994.6467617251857</v>
       </c>
       <c r="Y36" t="n">
-        <v>662.1993513436327</v>
+        <v>786.8864629602317</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>39.27759168374281</v>
+        <v>39.27759168374283</v>
       </c>
       <c r="C37" t="n">
-        <v>39.27759168374281</v>
+        <v>39.27759168374283</v>
       </c>
       <c r="D37" t="n">
-        <v>39.27759168374281</v>
+        <v>39.27759168374283</v>
       </c>
       <c r="E37" t="n">
-        <v>39.27759168374281</v>
+        <v>39.27759168374283</v>
       </c>
       <c r="F37" t="n">
-        <v>39.27759168374281</v>
+        <v>39.27759168374283</v>
       </c>
       <c r="G37" t="n">
-        <v>39.27759168374281</v>
+        <v>39.27759168374283</v>
       </c>
       <c r="H37" t="n">
-        <v>39.27759168374281</v>
+        <v>43.16043779684521</v>
       </c>
       <c r="I37" t="n">
-        <v>39.27759168374281</v>
+        <v>43.16043779684521</v>
       </c>
       <c r="J37" t="n">
-        <v>39.27759168374281</v>
+        <v>43.16043779684521</v>
       </c>
       <c r="K37" t="n">
-        <v>42.75588606537288</v>
+        <v>46.63873217847527</v>
       </c>
       <c r="L37" t="n">
-        <v>102.7333399419796</v>
+        <v>106.616186055082</v>
       </c>
       <c r="M37" t="n">
-        <v>180.2431248029068</v>
+        <v>180.2431248029073</v>
       </c>
       <c r="N37" t="n">
-        <v>257.5539959334616</v>
+        <v>257.5539959334621</v>
       </c>
       <c r="O37" t="n">
-        <v>312.946803035131</v>
+        <v>312.9468030351316</v>
       </c>
       <c r="P37" t="n">
-        <v>336.8242366848589</v>
+        <v>336.8242366848594</v>
       </c>
       <c r="Q37" t="n">
-        <v>336.8242366848589</v>
+        <v>336.8242366848594</v>
       </c>
       <c r="R37" t="n">
-        <v>336.8242366848589</v>
+        <v>336.8242366848594</v>
       </c>
       <c r="S37" t="n">
-        <v>319.6226678578911</v>
+        <v>319.6226678578915</v>
       </c>
       <c r="T37" t="n">
-        <v>295.5036936835502</v>
+        <v>295.5036936835505</v>
       </c>
       <c r="U37" t="n">
-        <v>211.4760998705833</v>
+        <v>211.4760998705836</v>
       </c>
       <c r="V37" t="n">
-        <v>161.9629316890851</v>
+        <v>161.9629316890853</v>
       </c>
       <c r="W37" t="n">
-        <v>77.71708167651305</v>
+        <v>77.71708167651317</v>
       </c>
       <c r="X37" t="n">
-        <v>54.89885080288431</v>
+        <v>54.89885080288438</v>
       </c>
       <c r="Y37" t="n">
-        <v>39.27759168374281</v>
+        <v>39.27759168374283</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1089.036043622728</v>
+        <v>1089.036043622727</v>
       </c>
       <c r="C38" t="n">
-        <v>925.2448467067048</v>
+        <v>925.244846706704</v>
       </c>
       <c r="D38" t="n">
-        <v>772.150468124343</v>
+        <v>772.1504681243421</v>
       </c>
       <c r="E38" t="n">
-        <v>591.5335355504874</v>
+        <v>591.5335355504865</v>
       </c>
       <c r="F38" t="n">
-        <v>385.7189507852686</v>
+        <v>385.7189507852675</v>
       </c>
       <c r="G38" t="n">
-        <v>171.8922831384453</v>
+        <v>171.8922831384454</v>
       </c>
       <c r="H38" t="n">
-        <v>39.27759168374283</v>
+        <v>39.27759168374281</v>
       </c>
       <c r="I38" t="n">
-        <v>50.87720864422865</v>
+        <v>50.8772086442286</v>
       </c>
       <c r="J38" t="n">
-        <v>80.61708314375274</v>
+        <v>281.7054938996559</v>
       </c>
       <c r="K38" t="n">
-        <v>245.9342499990567</v>
+        <v>447.0226607549599</v>
       </c>
       <c r="L38" t="n">
-        <v>503.3014413691422</v>
+        <v>704.3898521250453</v>
       </c>
       <c r="M38" t="n">
-        <v>951.2499119019566</v>
+        <v>1007.366987346049</v>
       </c>
       <c r="N38" t="n">
-        <v>1244.497536377866</v>
+        <v>1493.427184432367</v>
       </c>
       <c r="O38" t="n">
-        <v>1476.215314816203</v>
+        <v>1755.468545882623</v>
       </c>
       <c r="P38" t="n">
-        <v>1837.395105581418</v>
+        <v>1915.559925891934</v>
       </c>
       <c r="Q38" t="n">
-        <v>1880.395305037193</v>
+        <v>1958.56012534771</v>
       </c>
       <c r="R38" t="n">
-        <v>1963.879584187142</v>
+        <v>1958.56012534771</v>
       </c>
       <c r="S38" t="n">
-        <v>1963.879584187142</v>
+        <v>1963.879584187141</v>
       </c>
       <c r="T38" t="n">
-        <v>1945.889116118555</v>
+        <v>1945.889116118554</v>
       </c>
       <c r="U38" t="n">
         <v>1897.215916415483</v>
       </c>
       <c r="V38" t="n">
-        <v>1771.324349096301</v>
+        <v>1771.3243490963</v>
       </c>
       <c r="W38" t="n">
-        <v>1623.727013850576</v>
+        <v>1623.727013850575</v>
       </c>
       <c r="X38" t="n">
         <v>1455.432575613884</v>
       </c>
       <c r="Y38" t="n">
-        <v>1270.464563662461</v>
+        <v>1270.46456366246</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>824.3281622699503</v>
+        <v>445.533391044947</v>
       </c>
       <c r="C39" t="n">
-        <v>824.3281622699503</v>
+        <v>445.533391044947</v>
       </c>
       <c r="D39" t="n">
-        <v>675.3937526086991</v>
+        <v>296.5989813836957</v>
       </c>
       <c r="E39" t="n">
-        <v>516.1562976032436</v>
+        <v>296.5989813836957</v>
       </c>
       <c r="F39" t="n">
-        <v>369.6217396301286</v>
+        <v>150.0644234105807</v>
       </c>
       <c r="G39" t="n">
-        <v>231.1582917247118</v>
+        <v>150.0644234105807</v>
       </c>
       <c r="H39" t="n">
-        <v>120.3714599978739</v>
+        <v>39.27759168374281</v>
       </c>
       <c r="I39" t="n">
-        <v>39.27759168374283</v>
+        <v>39.27759168374281</v>
       </c>
       <c r="J39" t="n">
-        <v>63.29707751411956</v>
+        <v>63.29707751411954</v>
       </c>
       <c r="K39" t="n">
-        <v>230.9710476804584</v>
+        <v>230.9710476804583</v>
       </c>
       <c r="L39" t="n">
-        <v>517.8337891090475</v>
+        <v>517.8337891090474</v>
       </c>
       <c r="M39" t="n">
-        <v>904.5682995551228</v>
+        <v>904.5682995551226</v>
       </c>
       <c r="N39" t="n">
         <v>1317.245535115712</v>
       </c>
       <c r="O39" t="n">
-        <v>1628.348904360493</v>
+        <v>1628.348904360492</v>
       </c>
       <c r="P39" t="n">
-        <v>1861.033717859547</v>
+        <v>1861.033717859546</v>
       </c>
       <c r="Q39" t="n">
-        <v>1963.879584187142</v>
+        <v>1963.879584187141</v>
       </c>
       <c r="R39" t="n">
-        <v>1963.879584187142</v>
+        <v>1879.31091464974</v>
       </c>
       <c r="S39" t="n">
-        <v>1795.428659651772</v>
+        <v>1710.85999011437</v>
       </c>
       <c r="T39" t="n">
-        <v>1594.31978401711</v>
+        <v>1710.85999011437</v>
       </c>
       <c r="U39" t="n">
-        <v>1366.113756379286</v>
+        <v>1482.653962476547</v>
       </c>
       <c r="V39" t="n">
-        <v>1336.132968171932</v>
+        <v>1283.597883763703</v>
       </c>
       <c r="W39" t="n">
-        <v>1081.89561144373</v>
+        <v>1029.360527035502</v>
       </c>
       <c r="X39" t="n">
-        <v>1079.215431262586</v>
+        <v>821.5090268299689</v>
       </c>
       <c r="Y39" t="n">
-        <v>992.5434992900184</v>
+        <v>613.748728065015</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>39.27759168374283</v>
+        <v>39.27759168374281</v>
       </c>
       <c r="C40" t="n">
-        <v>39.27759168374283</v>
+        <v>39.27759168374281</v>
       </c>
       <c r="D40" t="n">
-        <v>43.1604377968447</v>
+        <v>39.27759168374281</v>
       </c>
       <c r="E40" t="n">
-        <v>43.1604377968447</v>
+        <v>39.27759168374281</v>
       </c>
       <c r="F40" t="n">
-        <v>43.1604377968447</v>
+        <v>39.27759168374281</v>
       </c>
       <c r="G40" t="n">
-        <v>43.1604377968447</v>
+        <v>39.27759168374281</v>
       </c>
       <c r="H40" t="n">
-        <v>43.1604377968447</v>
+        <v>39.27759168374281</v>
       </c>
       <c r="I40" t="n">
-        <v>43.1604377968447</v>
+        <v>39.27759168374281</v>
       </c>
       <c r="J40" t="n">
-        <v>43.1604377968447</v>
+        <v>39.27759168374281</v>
       </c>
       <c r="K40" t="n">
-        <v>46.63873217847476</v>
+        <v>42.75588606537288</v>
       </c>
       <c r="L40" t="n">
-        <v>106.6161860550814</v>
+        <v>102.7333399419796</v>
       </c>
       <c r="M40" t="n">
-        <v>180.2431248029068</v>
+        <v>180.243124802907</v>
       </c>
       <c r="N40" t="n">
-        <v>257.5539959334616</v>
+        <v>257.5539959334618</v>
       </c>
       <c r="O40" t="n">
-        <v>312.946803035131</v>
+        <v>312.9468030351313</v>
       </c>
       <c r="P40" t="n">
-        <v>336.8242366848589</v>
+        <v>336.8242366848591</v>
       </c>
       <c r="Q40" t="n">
-        <v>336.8242366848589</v>
+        <v>336.8242366848591</v>
       </c>
       <c r="R40" t="n">
-        <v>336.8242366848589</v>
+        <v>336.8242366848591</v>
       </c>
       <c r="S40" t="n">
-        <v>319.6226678578911</v>
+        <v>319.6226678578913</v>
       </c>
       <c r="T40" t="n">
-        <v>295.5036936835502</v>
+        <v>295.5036936835504</v>
       </c>
       <c r="U40" t="n">
-        <v>211.4760998705834</v>
+        <v>211.4760998705835</v>
       </c>
       <c r="V40" t="n">
-        <v>161.9629316890851</v>
+        <v>161.9629316890852</v>
       </c>
       <c r="W40" t="n">
-        <v>77.71708167651306</v>
+        <v>77.7170816765131</v>
       </c>
       <c r="X40" t="n">
-        <v>54.89885080288433</v>
+        <v>54.89885080288434</v>
       </c>
       <c r="Y40" t="n">
-        <v>39.27759168374283</v>
+        <v>39.27759168374281</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1089.036043622727</v>
+        <v>1089.036043622728</v>
       </c>
       <c r="C41" t="n">
-        <v>925.244846706704</v>
+        <v>925.2448467067046</v>
       </c>
       <c r="D41" t="n">
-        <v>772.1504681243421</v>
+        <v>772.1504681243426</v>
       </c>
       <c r="E41" t="n">
-        <v>591.5335355504862</v>
+        <v>591.5335355504869</v>
       </c>
       <c r="F41" t="n">
-        <v>385.7189507852672</v>
+        <v>385.7189507852679</v>
       </c>
       <c r="G41" t="n">
-        <v>171.8922831384455</v>
+        <v>171.8922831384454</v>
       </c>
       <c r="H41" t="n">
         <v>39.27759168374284</v>
@@ -7409,28 +7409,28 @@
         <v>39.27759168374284</v>
       </c>
       <c r="J41" t="n">
-        <v>270.1058769391701</v>
+        <v>69.01746618326693</v>
       </c>
       <c r="K41" t="n">
-        <v>636.5114545503772</v>
+        <v>234.3346330385709</v>
       </c>
       <c r="L41" t="n">
-        <v>893.8786459204626</v>
+        <v>692.7902351645596</v>
       </c>
       <c r="M41" t="n">
-        <v>1230.503142968378</v>
+        <v>995.7673703855637</v>
       </c>
       <c r="N41" t="n">
-        <v>1523.750767444288</v>
+        <v>1289.014994861473</v>
       </c>
       <c r="O41" t="n">
-        <v>1755.468545882624</v>
+        <v>1520.73277329981</v>
       </c>
       <c r="P41" t="n">
-        <v>1915.559925891936</v>
+        <v>1832.075646741987</v>
       </c>
       <c r="Q41" t="n">
-        <v>1958.560125347711</v>
+        <v>1875.075846197762</v>
       </c>
       <c r="R41" t="n">
         <v>1958.560125347711</v>
@@ -7448,13 +7448,13 @@
         <v>1771.324349096301</v>
       </c>
       <c r="W41" t="n">
-        <v>1623.727013850575</v>
+        <v>1623.727013850576</v>
       </c>
       <c r="X41" t="n">
         <v>1455.432575613884</v>
       </c>
       <c r="Y41" t="n">
-        <v>1270.46456366246</v>
+        <v>1270.464563662461</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>806.9004915101085</v>
+        <v>485.9129042558664</v>
       </c>
       <c r="C42" t="n">
-        <v>632.4474622289815</v>
+        <v>485.9129042558664</v>
       </c>
       <c r="D42" t="n">
-        <v>483.5130525677302</v>
+        <v>336.9784945946151</v>
       </c>
       <c r="E42" t="n">
-        <v>324.2755975622747</v>
+        <v>177.7410395891596</v>
       </c>
       <c r="F42" t="n">
         <v>177.7410395891596</v>
@@ -7488,16 +7488,16 @@
         <v>39.27759168374284</v>
       </c>
       <c r="J42" t="n">
-        <v>63.29707751411956</v>
+        <v>63.29707751411974</v>
       </c>
       <c r="K42" t="n">
         <v>230.9710476804585</v>
       </c>
       <c r="L42" t="n">
-        <v>517.8337891090478</v>
+        <v>517.8337891090476</v>
       </c>
       <c r="M42" t="n">
-        <v>904.568299555123</v>
+        <v>904.5682995551228</v>
       </c>
       <c r="N42" t="n">
         <v>1317.245535115712</v>
@@ -7512,28 +7512,28 @@
         <v>1963.879584187142</v>
       </c>
       <c r="R42" t="n">
-        <v>1879.310914649742</v>
+        <v>1963.879584187142</v>
       </c>
       <c r="S42" t="n">
-        <v>1879.310914649742</v>
+        <v>1795.428659651772</v>
       </c>
       <c r="T42" t="n">
-        <v>1678.202039015079</v>
+        <v>1594.31978401711</v>
       </c>
       <c r="U42" t="n">
-        <v>1449.996011377256</v>
+        <v>1366.113756379286</v>
       </c>
       <c r="V42" t="n">
-        <v>1420.015223169901</v>
+        <v>1130.961648147544</v>
       </c>
       <c r="W42" t="n">
-        <v>1370.949186466088</v>
+        <v>1069.740040246421</v>
       </c>
       <c r="X42" t="n">
-        <v>1182.87612729513</v>
+        <v>861.8885400408883</v>
       </c>
       <c r="Y42" t="n">
-        <v>975.1158285301765</v>
+        <v>654.1282412759344</v>
       </c>
     </row>
     <row r="43">
@@ -7558,58 +7558,58 @@
         <v>39.27759168374284</v>
       </c>
       <c r="G43" t="n">
-        <v>43.16043779684572</v>
+        <v>39.27759168374284</v>
       </c>
       <c r="H43" t="n">
-        <v>43.16043779684572</v>
+        <v>39.27759168374284</v>
       </c>
       <c r="I43" t="n">
-        <v>43.16043779684572</v>
+        <v>39.27759168374284</v>
       </c>
       <c r="J43" t="n">
-        <v>43.16043779684572</v>
+        <v>39.27759168374284</v>
       </c>
       <c r="K43" t="n">
-        <v>46.63873217847578</v>
+        <v>42.75588606537291</v>
       </c>
       <c r="L43" t="n">
-        <v>106.6161860550825</v>
+        <v>102.7333399419796</v>
       </c>
       <c r="M43" t="n">
-        <v>180.2431248029078</v>
+        <v>176.3602786898049</v>
       </c>
       <c r="N43" t="n">
-        <v>257.5539959334626</v>
+        <v>253.6711498203597</v>
       </c>
       <c r="O43" t="n">
-        <v>312.9468030351321</v>
+        <v>309.0639569220292</v>
       </c>
       <c r="P43" t="n">
-        <v>336.8242366848599</v>
+        <v>332.941390571757</v>
       </c>
       <c r="Q43" t="n">
-        <v>336.8242366848599</v>
+        <v>332.941390571757</v>
       </c>
       <c r="R43" t="n">
-        <v>336.8242366848599</v>
+        <v>336.8242366848595</v>
       </c>
       <c r="S43" t="n">
-        <v>319.6226678578919</v>
+        <v>319.6226678578916</v>
       </c>
       <c r="T43" t="n">
-        <v>295.5036936835509</v>
+        <v>295.5036936835506</v>
       </c>
       <c r="U43" t="n">
-        <v>211.4760998705839</v>
+        <v>211.4760998705837</v>
       </c>
       <c r="V43" t="n">
-        <v>161.9629316890855</v>
+        <v>161.9629316890853</v>
       </c>
       <c r="W43" t="n">
-        <v>77.71708167651336</v>
+        <v>77.71708167651325</v>
       </c>
       <c r="X43" t="n">
-        <v>54.89885080288448</v>
+        <v>54.89885080288443</v>
       </c>
       <c r="Y43" t="n">
         <v>39.27759168374284</v>
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1089.036043622727</v>
+        <v>1089.036043622728</v>
       </c>
       <c r="C44" t="n">
-        <v>925.2448467067038</v>
+        <v>925.2448467067047</v>
       </c>
       <c r="D44" t="n">
-        <v>772.1504681243418</v>
+        <v>772.1504681243428</v>
       </c>
       <c r="E44" t="n">
-        <v>591.5335355504862</v>
+        <v>591.533535550487</v>
       </c>
       <c r="F44" t="n">
-        <v>385.7189507852672</v>
+        <v>385.718950785268</v>
       </c>
       <c r="G44" t="n">
-        <v>171.8922831384455</v>
+        <v>171.8922831384454</v>
       </c>
       <c r="H44" t="n">
-        <v>39.27759168374283</v>
+        <v>39.27759168374284</v>
       </c>
       <c r="I44" t="n">
-        <v>39.27759168374283</v>
+        <v>50.87720864422857</v>
       </c>
       <c r="J44" t="n">
-        <v>69.01746618326692</v>
+        <v>80.61708314375267</v>
       </c>
       <c r="K44" t="n">
-        <v>234.3346330385709</v>
+        <v>245.9342499990566</v>
       </c>
       <c r="L44" t="n">
-        <v>491.7018244086564</v>
+        <v>704.3898521250453</v>
       </c>
       <c r="M44" t="n">
-        <v>977.7620214949741</v>
+        <v>1037.69057035797</v>
       </c>
       <c r="N44" t="n">
-        <v>1322.662356688384</v>
+        <v>1523.750767444288</v>
       </c>
       <c r="O44" t="n">
         <v>1755.468545882624</v>
@@ -7682,16 +7682,16 @@
         <v>1897.215916415483</v>
       </c>
       <c r="V44" t="n">
-        <v>1771.3243490963</v>
+        <v>1771.324349096301</v>
       </c>
       <c r="W44" t="n">
-        <v>1623.727013850575</v>
+        <v>1623.727013850576</v>
       </c>
       <c r="X44" t="n">
         <v>1455.432575613884</v>
       </c>
       <c r="Y44" t="n">
-        <v>1270.46456366246</v>
+        <v>1270.464563662461</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>887.9943598242395</v>
+        <v>806.9004915101085</v>
       </c>
       <c r="C45" t="n">
-        <v>713.5413305431125</v>
+        <v>632.4474622289815</v>
       </c>
       <c r="D45" t="n">
-        <v>564.6069208818612</v>
+        <v>483.5130525677302</v>
       </c>
       <c r="E45" t="n">
-        <v>405.3694658764057</v>
+        <v>324.2755975622747</v>
       </c>
       <c r="F45" t="n">
-        <v>258.8349079032907</v>
+        <v>177.7410395891596</v>
       </c>
       <c r="G45" t="n">
-        <v>120.3714599978739</v>
+        <v>39.27759168374284</v>
       </c>
       <c r="H45" t="n">
-        <v>120.3714599978739</v>
+        <v>39.27759168374284</v>
       </c>
       <c r="I45" t="n">
-        <v>39.27759168374283</v>
+        <v>39.27759168374284</v>
       </c>
       <c r="J45" t="n">
         <v>63.29707751411956</v>
@@ -7731,10 +7731,10 @@
         <v>230.9710476804583</v>
       </c>
       <c r="L45" t="n">
-        <v>517.8337891090475</v>
+        <v>517.8337891090478</v>
       </c>
       <c r="M45" t="n">
-        <v>904.5682995551227</v>
+        <v>904.5682995551228</v>
       </c>
       <c r="N45" t="n">
         <v>1317.245535115712</v>
@@ -7749,28 +7749,28 @@
         <v>1963.879584187142</v>
       </c>
       <c r="R45" t="n">
-        <v>1963.879584187142</v>
+        <v>1879.310914649742</v>
       </c>
       <c r="S45" t="n">
-        <v>1795.428659651772</v>
+        <v>1710.859990114372</v>
       </c>
       <c r="T45" t="n">
-        <v>1795.428659651772</v>
+        <v>1710.859990114372</v>
       </c>
       <c r="U45" t="n">
-        <v>1567.222632013948</v>
+        <v>1482.653962476548</v>
       </c>
       <c r="V45" t="n">
-        <v>1537.241843806594</v>
+        <v>1452.673174269194</v>
       </c>
       <c r="W45" t="n">
-        <v>1283.004487078393</v>
+        <v>1198.435817540993</v>
       </c>
       <c r="X45" t="n">
-        <v>1095.754658589193</v>
+        <v>990.5843173354597</v>
       </c>
       <c r="Y45" t="n">
-        <v>887.9943598242395</v>
+        <v>806.9004915101085</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>39.27759168374283</v>
+        <v>39.27759168374284</v>
       </c>
       <c r="C46" t="n">
-        <v>39.27759168374283</v>
+        <v>39.27759168374284</v>
       </c>
       <c r="D46" t="n">
-        <v>43.16043779684572</v>
+        <v>39.27759168374284</v>
       </c>
       <c r="E46" t="n">
-        <v>43.16043779684572</v>
+        <v>39.27759168374284</v>
       </c>
       <c r="F46" t="n">
-        <v>43.16043779684572</v>
+        <v>39.27759168374284</v>
       </c>
       <c r="G46" t="n">
-        <v>43.16043779684572</v>
+        <v>39.27759168374284</v>
       </c>
       <c r="H46" t="n">
-        <v>43.16043779684572</v>
+        <v>39.27759168374284</v>
       </c>
       <c r="I46" t="n">
-        <v>43.16043779684572</v>
+        <v>39.27759168374284</v>
       </c>
       <c r="J46" t="n">
-        <v>43.16043779684572</v>
+        <v>39.27759168374284</v>
       </c>
       <c r="K46" t="n">
-        <v>46.63873217847578</v>
+        <v>42.75588606537291</v>
       </c>
       <c r="L46" t="n">
-        <v>106.6161860550825</v>
+        <v>102.7333399419796</v>
       </c>
       <c r="M46" t="n">
-        <v>180.2431248029078</v>
+        <v>180.2431248029074</v>
       </c>
       <c r="N46" t="n">
-        <v>257.5539959334626</v>
+        <v>257.5539959334622</v>
       </c>
       <c r="O46" t="n">
-        <v>312.9468030351321</v>
+        <v>312.9468030351317</v>
       </c>
       <c r="P46" t="n">
-        <v>336.8242366848599</v>
+        <v>336.8242366848595</v>
       </c>
       <c r="Q46" t="n">
-        <v>336.8242366848599</v>
+        <v>336.8242366848595</v>
       </c>
       <c r="R46" t="n">
-        <v>336.8242366848599</v>
+        <v>336.8242366848595</v>
       </c>
       <c r="S46" t="n">
-        <v>319.6226678578919</v>
+        <v>319.6226678578916</v>
       </c>
       <c r="T46" t="n">
-        <v>295.5036936835509</v>
+        <v>295.5036936835506</v>
       </c>
       <c r="U46" t="n">
-        <v>211.4760998705839</v>
+        <v>211.4760998705837</v>
       </c>
       <c r="V46" t="n">
-        <v>161.9629316890855</v>
+        <v>161.9629316890853</v>
       </c>
       <c r="W46" t="n">
-        <v>77.71708167651335</v>
+        <v>77.71708167651325</v>
       </c>
       <c r="X46" t="n">
-        <v>54.89885080288447</v>
+        <v>54.89885080288443</v>
       </c>
       <c r="Y46" t="n">
-        <v>39.27759168374283</v>
+        <v>39.27759168374284</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>226.965896786692</v>
       </c>
       <c r="L2" t="n">
-        <v>242.6424607116987</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
         <v>236.944458939016</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2891093383024</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
         <v>236.9742571633982</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>238.109041496981</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8143,13 +8143,13 @@
         <v>141.7607220229497</v>
       </c>
       <c r="M4" t="n">
-        <v>145.8018296893165</v>
+        <v>145.5240096593483</v>
       </c>
       <c r="N4" t="n">
         <v>134.5615902069446</v>
       </c>
       <c r="O4" t="n">
-        <v>145.0547641635861</v>
+        <v>145.3325841935542</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8219,7 +8219,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>242.6424607116987</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
         <v>237.2222789689842</v>
@@ -8231,7 +8231,7 @@
         <v>236.9742571633982</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>238.109041496981</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,22 +8295,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>144.4396646861023</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>149.0100796637298</v>
       </c>
       <c r="N6" t="n">
-        <v>138.2177578250447</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>149.1944701561877</v>
+        <v>149.4722901861559</v>
       </c>
       <c r="P6" t="n">
-        <v>140.8504531560417</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>146.857819827733</v>
@@ -8377,13 +8377,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>141.4829019929816</v>
+        <v>141.7607220229497</v>
       </c>
       <c r="M7" t="n">
         <v>145.8018296893165</v>
       </c>
       <c r="N7" t="n">
-        <v>134.5615902069446</v>
+        <v>134.2837701769765</v>
       </c>
       <c r="O7" t="n">
         <v>145.3325841935542</v>
@@ -8453,16 +8453,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>235.3925885601156</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>250.4508600602684</v>
       </c>
       <c r="M8" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>244.097508686872</v>
+        <v>244.715801111726</v>
       </c>
       <c r="O8" t="n">
         <v>245.4009489368218</v>
@@ -8544,10 +8544,10 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>157.2806895347256</v>
       </c>
       <c r="P9" t="n">
-        <v>148.6588525046114</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>155.2845116011566</v>
@@ -8614,13 +8614,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>150.1874137963733</v>
+        <v>149.5691213715194</v>
       </c>
       <c r="M10" t="n">
         <v>154.2285214627401</v>
       </c>
       <c r="N10" t="n">
-        <v>142.3699895555143</v>
+        <v>142.9882819803682</v>
       </c>
       <c r="O10" t="n">
         <v>153.7592759669778</v>
@@ -8775,19 +8775,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>75.06414410749971</v>
+        <v>453.4973967414923</v>
       </c>
       <c r="N12" t="n">
-        <v>440.9299344921027</v>
+        <v>62.49668185811018</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>377.3160402068946</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>193.5310086660143</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9012,19 +9012,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>453.4973967414923</v>
+        <v>75.06414410749971</v>
       </c>
       <c r="N15" t="n">
-        <v>62.49668185811018</v>
+        <v>440.9299344921027</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>301.9164895701023</v>
       </c>
       <c r="Q15" t="n">
-        <v>193.5310086660143</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>159.2460501861139</v>
       </c>
       <c r="L18" t="n">
         <v>81.08000042609636</v>
@@ -9255,7 +9255,7 @@
         <v>440.9299344921027</v>
       </c>
       <c r="O18" t="n">
-        <v>288.6431324502647</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9483,19 +9483,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>81.08000042609636</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>348.2782099150275</v>
+        <v>453.4973967414923</v>
       </c>
       <c r="N21" t="n">
         <v>440.9299344921027</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>233.9179527234615</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>83.42760348937765</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9717,19 +9717,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>159.2460501861139</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>81.08000042609636</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>453.4973967414923</v>
       </c>
       <c r="N24" t="n">
-        <v>440.9299344921027</v>
+        <v>62.49668185811018</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>377.3160402068946</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -10668,7 +10668,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.840345303458</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10914,7 +10914,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>393.8623192767284</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>126.091035340409</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11385,7 +11385,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435535</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>234.6620056874935</v>
+        <v>206.8299192024101</v>
       </c>
       <c r="D11" t="n">
         <v>224.0721555371689</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>251.3194839887477</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>276.2651596581974</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>284.1971217109846</v>
       </c>
       <c r="H11" t="n">
         <v>203.7972652807861</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>60.79193593205912</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>197.1413723866208</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>218.6300826338989</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>173.3431072118454</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>255.6270525725395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23495,13 +23495,13 @@
         <v>252.1229555799665</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>234.6620056874935</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>224.0721555371689</v>
       </c>
       <c r="E14" t="n">
-        <v>130.1113850262348</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>276.2651596581974</v>
@@ -23510,7 +23510,7 @@
         <v>284.1971217109846</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>168.8181131428123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>67.13552999373054</v>
       </c>
       <c r="T14" t="n">
-        <v>90.31928412853166</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>218.6300826338989</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>255.6270525725395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>934909.3376961886</v>
+        <v>934909.3376961885</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>934909.3376961885</v>
+        <v>934909.3376961886</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1078884.058602153</v>
+        <v>1078884.058602154</v>
       </c>
     </row>
     <row r="9">
@@ -26314,13 +26314,13 @@
         <v>451204.0528595153</v>
       </c>
       <c r="C2" t="n">
-        <v>451204.0528595154</v>
+        <v>451204.0528595153</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253558</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
-        <v>385584.5596767882</v>
+        <v>385584.559676788</v>
       </c>
       <c r="F2" t="n">
         <v>385584.559676788</v>
@@ -26329,31 +26329,31 @@
         <v>451572.9734253559</v>
       </c>
       <c r="H2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253561</v>
       </c>
       <c r="I2" t="n">
         <v>451572.973425356</v>
       </c>
       <c r="J2" t="n">
-        <v>451572.9734253557</v>
+        <v>451572.9734253554</v>
       </c>
       <c r="K2" t="n">
-        <v>451572.9734253557</v>
+        <v>451572.9734253556</v>
       </c>
       <c r="L2" t="n">
+        <v>451572.973425356</v>
+      </c>
+      <c r="M2" t="n">
         <v>451572.9734253559</v>
       </c>
-      <c r="M2" t="n">
-        <v>451572.9734253558</v>
-      </c>
       <c r="N2" t="n">
-        <v>451572.9734253557</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="O2" t="n">
         <v>451572.9734253559</v>
       </c>
       <c r="P2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.9734253558</v>
       </c>
     </row>
     <row r="3">
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>117789.9687777056</v>
+        <v>117789.9687777055</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>87679.20904023158</v>
+        <v>87679.20904023161</v>
       </c>
       <c r="M3" t="n">
-        <v>83343.38525828411</v>
+        <v>83343.38525828414</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>34391.66640178632</v>
+        <v>34391.66640178637</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26445,13 +26445,13 @@
         <v>323509.3700360253</v>
       </c>
       <c r="L4" t="n">
-        <v>323466.9816099326</v>
+        <v>323466.9816099327</v>
       </c>
       <c r="M4" t="n">
         <v>322556.8896597543</v>
       </c>
       <c r="N4" t="n">
-        <v>322556.8896597545</v>
+        <v>322556.8896597543</v>
       </c>
       <c r="O4" t="n">
         <v>322556.8896597543</v>
@@ -26482,7 +26482,7 @@
         <v>36671.86393488244</v>
       </c>
       <c r="G5" t="n">
-        <v>45702.45987484939</v>
+        <v>45702.45987484938</v>
       </c>
       <c r="H5" t="n">
         <v>45702.45987484938</v>
@@ -26500,16 +26500,16 @@
         <v>56968.93352514198</v>
       </c>
       <c r="M5" t="n">
+        <v>49609.82749832432</v>
+      </c>
+      <c r="N5" t="n">
         <v>49609.8274983243</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>49609.82749832432</v>
       </c>
-      <c r="O5" t="n">
-        <v>49609.82749832431</v>
-      </c>
       <c r="P5" t="n">
-        <v>49609.8274983243</v>
+        <v>49609.82749832432</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11332.18693695292</v>
+        <v>11330.51002529001</v>
       </c>
       <c r="C6" t="n">
-        <v>13636.50801405246</v>
+        <v>13634.83110238955</v>
       </c>
       <c r="D6" t="n">
-        <v>11870.83640607647</v>
+        <v>11870.83640607652</v>
       </c>
       <c r="E6" t="n">
-        <v>-222075.1691447615</v>
+        <v>-222375.1164799823</v>
       </c>
       <c r="F6" t="n">
-        <v>89706.32392512287</v>
+        <v>89406.3765899022</v>
       </c>
       <c r="G6" t="n">
-        <v>-7509.28895905448</v>
+        <v>-7509.288959054415</v>
       </c>
       <c r="H6" t="n">
-        <v>78425.79712468115</v>
+        <v>78425.79712468121</v>
       </c>
       <c r="I6" t="n">
         <v>78425.79712468115</v>
       </c>
       <c r="J6" t="n">
-        <v>-47024.35843230418</v>
+        <v>-47024.35843230441</v>
       </c>
       <c r="K6" t="n">
-        <v>70765.61034540134</v>
+        <v>70765.61034540128</v>
       </c>
       <c r="L6" t="n">
-        <v>-16542.15074995028</v>
+        <v>-16542.15074995022</v>
       </c>
       <c r="M6" t="n">
-        <v>-3937.128991006961</v>
+        <v>-3937.128991006975</v>
       </c>
       <c r="N6" t="n">
-        <v>79406.25626727696</v>
+        <v>79406.2562672772</v>
       </c>
       <c r="O6" t="n">
-        <v>45014.58986549087</v>
+        <v>45014.58986549081</v>
       </c>
       <c r="P6" t="n">
-        <v>79406.25626727726</v>
+        <v>79406.25626727713</v>
       </c>
     </row>
   </sheetData>
@@ -26814,22 +26814,22 @@
         <v>690.3044450323459</v>
       </c>
       <c r="K4" t="n">
-        <v>690.3044450323459</v>
+        <v>690.3044450323458</v>
       </c>
       <c r="L4" t="n">
-        <v>681.8777532589223</v>
+        <v>681.8777532589222</v>
       </c>
       <c r="M4" t="n">
+        <v>490.9698960467854</v>
+      </c>
+      <c r="N4" t="n">
         <v>490.9698960467852</v>
-      </c>
-      <c r="N4" t="n">
-        <v>490.9698960467854</v>
       </c>
       <c r="O4" t="n">
         <v>490.9698960467855</v>
       </c>
       <c r="P4" t="n">
-        <v>490.9698960467854</v>
+        <v>490.9698960467855</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>42.98958300223305</v>
+        <v>42.98958300223302</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>109.5990113002895</v>
       </c>
       <c r="M2" t="n">
-        <v>50.53101252162222</v>
+        <v>50.53101252162213</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>42.98958300223291</v>
+        <v>42.98958300223296</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>172.2226579067203</v>
+        <v>172.2226579067207</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>42.98958300223305</v>
+        <v>42.98958300223302</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27421,7 +27421,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.114653472833368</v>
+        <v>3.934278125245373</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27436,10 +27436,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>321.6958373808355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>342.3649229757016</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27458,7 +27458,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>166.6520778990163</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27470,7 +27470,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>130.4674714214992</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>93.2817884109317</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27512,13 +27512,13 @@
         <v>193.2886829531102</v>
       </c>
       <c r="U3" t="n">
-        <v>219.0653363392634</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>245.6385620716202</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>141.7394272765009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27561,7 +27561,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>15.39344608417142</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,28 +27576,28 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>79.28599750998295</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>220.6816176827793</v>
+        <v>217.1405522952608</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>221.8891683389821</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>279.4429836147795</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>279.6469525948796</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27637,7 +27637,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>5.073243612901081</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.934278125245373</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27667,7 +27667,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>216.2198038224199</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>363.6746795891696</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,13 +27695,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>166.6520778990163</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>150.7690347136895</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,7 +27710,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>106.179023147197</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>93.2817884109317</v>
       </c>
       <c r="S6" t="n">
-        <v>164.8071253621264</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27758,7 +27758,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>198.896939461766</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>160.3707753569164</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27798,7 +27798,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>15.39344608417142</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27825,19 +27825,19 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>221.0695436865701</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>282.984049002298</v>
       </c>
       <c r="V7" t="n">
-        <v>245.2615975821166</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>283.1880179823981</v>
+        <v>279.6469525948796</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>218.8336096473257</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>342.7683978584732</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03464559240275555</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>134.5663804260146</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>207.7931120489963</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>151.2304461347323</v>
       </c>
       <c r="C9" t="n">
-        <v>157.4057614731807</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27941,13 +27941,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>129.7664748782488</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>98.75679303316552</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27983,13 +27983,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>184.8619911796866</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>219.3219359460943</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>153.7681698952969</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>131.1312251314341</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>6.966754310747802</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,22 +28050,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.40483278346996</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>208.7138605218372</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>271.0162918413558</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>210.4069178739021</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>203.2819158369597</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="C12" t="n">
         <v>130.6108860835141</v>
@@ -28178,16 +28178,16 @@
         <v>130.6108860835141</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="G12" t="n">
         <v>130.6108860835141</v>
       </c>
       <c r="H12" t="n">
-        <v>90.67031284932136</v>
+        <v>109.6789634095695</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>80.28292963098974</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,25 +28217,25 @@
         <v>83.72298284202645</v>
       </c>
       <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
         <v>130.6108860835141</v>
       </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>130.6108860835141</v>
+        <v>31.31930589227645</v>
       </c>
       <c r="X12" t="n">
-        <v>130.6108860835141</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>130.6108860835141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28281,13 +28281,13 @@
         <v>130.6108860835141</v>
       </c>
       <c r="N13" t="n">
-        <v>130.6108860835141</v>
+        <v>14.1289493235389</v>
       </c>
       <c r="O13" t="n">
         <v>130.6108860835141</v>
       </c>
       <c r="P13" t="n">
-        <v>14.12894932353806</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="Q13" t="n">
         <v>130.6108860835141</v>
@@ -28403,13 +28403,13 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
         <v>130.6108860835141</v>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -28454,25 +28454,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="T15" t="n">
-        <v>130.6108860835141</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>130.6108860835141</v>
       </c>
       <c r="V15" t="n">
+        <v>115.0422887343029</v>
+      </c>
+      <c r="W15" t="n">
         <v>130.6108860835141</v>
       </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
       <c r="X15" t="n">
-        <v>115.0422887343027</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>130.6108860835141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28506,13 +28506,13 @@
         <v>130.6108860835141</v>
       </c>
       <c r="J16" t="n">
-        <v>77.66952654207475</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="K16" t="n">
         <v>130.6108860835141</v>
       </c>
       <c r="L16" t="n">
-        <v>130.6108860835141</v>
+        <v>14.12894932353887</v>
       </c>
       <c r="M16" t="n">
         <v>130.6108860835141</v>
@@ -28524,7 +28524,7 @@
         <v>130.6108860835141</v>
       </c>
       <c r="P16" t="n">
-        <v>67.07030886497729</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="Q16" t="n">
         <v>130.6108860835141</v>
@@ -28640,25 +28640,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0788134263626</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>109.6789634095695</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>80.28292963098974</v>
@@ -28691,25 +28691,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>166.766415290016</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>199.0977868783158</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>104.6739163459496</v>
       </c>
       <c r="W18" t="n">
-        <v>238.0297436881834</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>121.8125483861562</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>67.57937653244244</v>
       </c>
       <c r="R19" t="n">
-        <v>55.04566963206605</v>
+        <v>167.3151187039071</v>
       </c>
       <c r="S19" t="n">
         <v>220.1491599628428</v>
@@ -28779,7 +28779,7 @@
         <v>238.0297436881834</v>
       </c>
       <c r="V19" t="n">
-        <v>238.0297436881834</v>
+        <v>58.18091808390008</v>
       </c>
       <c r="W19" t="n">
         <v>238.0297436881834</v>
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0788134263626</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.28292963098974</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28931,22 +28931,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>173.3176580088038</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9239673614453</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>2.825281856683745</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>238.0297436881834</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -28962,7 +28962,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>136.5357080513892</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -28971,7 +28971,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.7690606374602</v>
       </c>
       <c r="H22" t="n">
         <v>160.2541133334706</v>
@@ -29013,7 +29013,7 @@
         <v>226.9973912567422</v>
       </c>
       <c r="U22" t="n">
-        <v>238.0297436881834</v>
+        <v>58.18091808390008</v>
       </c>
       <c r="V22" t="n">
         <v>238.0297436881834</v>
@@ -29114,19 +29114,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>140.1877393118432</v>
       </c>
       <c r="C24" t="n">
-        <v>71.65931312735115</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.0788134263626</v>
@@ -29162,19 +29162,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>83.72298284202645</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>166.766415290016</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>199.0977868783158</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9239673614453</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -29208,7 +29208,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.7690606374602</v>
       </c>
       <c r="H25" t="n">
         <v>160.2541133334706</v>
@@ -29250,13 +29250,13 @@
         <v>226.9973912567422</v>
       </c>
       <c r="U25" t="n">
-        <v>225.9499787213603</v>
+        <v>238.0297436881834</v>
       </c>
       <c r="V25" t="n">
         <v>238.0297436881834</v>
       </c>
       <c r="W25" t="n">
-        <v>238.0297436881834</v>
+        <v>238.0128982658374</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -29357,7 +29357,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>150.4084406069024</v>
@@ -29366,10 +29366,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0788134263626</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.6789634095695</v>
       </c>
       <c r="I27" t="n">
         <v>80.28292963098974</v>
@@ -29405,19 +29405,19 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="U27" t="n">
-        <v>150.4084406069024</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>9.621378528983257</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>108.9340898002766</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -29436,10 +29436,10 @@
         <v>150.4084406069024</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="F28" t="n">
         <v>150.4084406069024</v>
@@ -29457,16 +29457,16 @@
         <v>77.66952654207475</v>
       </c>
       <c r="K28" t="n">
+        <v>10.62168893269661</v>
+      </c>
+      <c r="L28" t="n">
         <v>150.4084406069024</v>
       </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
       <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
         <v>150.4084406069024</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -29475,7 +29475,7 @@
         <v>150.4084406069024</v>
       </c>
       <c r="Q28" t="n">
-        <v>83.96851101416222</v>
+        <v>67.57937653244244</v>
       </c>
       <c r="R28" t="n">
         <v>150.4084406069024</v>
@@ -29588,13 +29588,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>150.4084406069024</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -29603,10 +29603,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0788134263626</v>
       </c>
       <c r="H30" t="n">
-        <v>109.6789634095695</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>80.28292963098974</v>
@@ -29636,22 +29636,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>83.72298284202645</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
         <v>150.4084406069024</v>
       </c>
-      <c r="U30" t="n">
-        <v>62.97720911331947</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>122.2637169808165</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -29676,10 +29676,10 @@
         <v>150.4084406069024</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="G31" t="n">
         <v>150.4084406069024</v>
@@ -29688,31 +29688,31 @@
         <v>150.4084406069024</v>
       </c>
       <c r="I31" t="n">
+        <v>148.7767737539562</v>
+      </c>
+      <c r="J31" t="n">
+        <v>88.29121547477123</v>
+      </c>
+      <c r="K31" t="n">
         <v>150.4084406069024</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
         <v>150.4084406069024</v>
       </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>12.7923550916694</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>150.4084406069024</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>150.4084406069024</v>
       </c>
       <c r="Q31" t="n">
-        <v>150.4084406069024</v>
+        <v>67.57937653244244</v>
       </c>
       <c r="R31" t="n">
         <v>150.4084406069024</v>
@@ -29773,7 +29773,7 @@
         <v>152.5885943025225</v>
       </c>
       <c r="K32" t="n">
-        <v>152.5885943025225</v>
+        <v>99.60091634313181</v>
       </c>
       <c r="L32" t="n">
         <v>152.5885943025225</v>
@@ -29788,7 +29788,7 @@
         <v>152.5885943025225</v>
       </c>
       <c r="P32" t="n">
-        <v>99.60091634313233</v>
+        <v>152.5885943025225</v>
       </c>
       <c r="Q32" t="n">
         <v>152.5885943025225</v>
@@ -29825,25 +29825,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>152.5885943025225</v>
       </c>
       <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
         <v>152.5885943025225</v>
       </c>
-      <c r="D33" t="n">
-        <v>147.4450655646388</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>66.60730068910051</v>
       </c>
       <c r="G33" t="n">
-        <v>13.33141765787165</v>
+        <v>137.0788134263626</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>109.6789634095695</v>
       </c>
       <c r="I33" t="n">
         <v>80.28292963098974</v>
@@ -29876,7 +29876,7 @@
         <v>83.72298284202645</v>
       </c>
       <c r="S33" t="n">
-        <v>152.5885943025225</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -29888,7 +29888,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>152.5885943025225</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -29913,7 +29913,7 @@
         <v>152.5885943025225</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>152.5885943025225</v>
       </c>
       <c r="F34" t="n">
         <v>152.5885943025225</v>
@@ -29931,22 +29931,22 @@
         <v>77.66952654207475</v>
       </c>
       <c r="K34" t="n">
-        <v>129.5909569584048</v>
+        <v>152.5885943025225</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>123.4363253024509</v>
+      </c>
+      <c r="P34" t="n">
         <v>152.5885943025225</v>
-      </c>
-      <c r="N34" t="n">
-        <v>152.5885943025225</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>67.57937653244244</v>
@@ -30010,10 +30010,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>39.3604249154956</v>
+        <v>203.1196068241447</v>
       </c>
       <c r="L35" t="n">
-        <v>203.1196068241447</v>
+        <v>33.98723416859679</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>118.7920521272268</v>
       </c>
       <c r="S35" t="n">
-        <v>197.7464160772446</v>
+        <v>203.1196068241447</v>
       </c>
       <c r="T35" t="n">
         <v>203.1196068241447</v>
@@ -30062,10 +30062,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -30074,13 +30074,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>129.4928516739475</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0788134263626</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.6789634095695</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>80.28292963098974</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>79.67936632371259</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30119,16 +30119,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
         <v>203.1196068241447</v>
       </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>203.1196068241447</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -30159,7 +30159,7 @@
         <v>167.7690606374602</v>
       </c>
       <c r="H37" t="n">
-        <v>160.2541133334706</v>
+        <v>164.176180114382</v>
       </c>
       <c r="I37" t="n">
         <v>148.7767737539562</v>
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>3.922066780910995</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30244,7 +30244,7 @@
         <v>203.1196068241447</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>203.1196068241447</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -30253,25 +30253,25 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>146.4356922341519</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>194.7601743539471</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>30.62988183022179</v>
       </c>
       <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>118.7920521272268</v>
+      </c>
+      <c r="S38" t="n">
         <v>203.1196068241447</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>203.1196068241447</v>
-      </c>
-      <c r="S38" t="n">
-        <v>197.7464160772446</v>
       </c>
       <c r="T38" t="n">
         <v>203.1196068241447</v>
@@ -30308,19 +30308,19 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0788134263626</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>80.28292963098974</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,28 +30347,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>83.72298284202645</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>199.0977868783158</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>203.1196068241447</v>
+        <v>35.73506922371013</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>203.1196068241447</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>119.8774831244623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30384,7 +30384,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>152.5375397991233</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -30411,7 +30411,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>3.922066780911237</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -30481,31 +30481,31 @@
         <v>191.4028220155732</v>
       </c>
       <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
         <v>203.1196068241446</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>152.7792862958236</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
         <v>203.1196068241446</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>33.98723416859741</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>118.7920521272268</v>
       </c>
       <c r="S41" t="n">
         <v>203.1196068241446</v>
@@ -30539,7 +30539,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -30548,7 +30548,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -30584,10 +30584,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>83.72298284202645</v>
       </c>
       <c r="S42" t="n">
-        <v>166.766415290016</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -30596,13 +30596,13 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>203.1196068241446</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>203.1196068241446</v>
+        <v>191.0855913388083</v>
       </c>
       <c r="X42" t="n">
-        <v>19.58065662422905</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -30630,7 +30630,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>171.6911274183722</v>
+        <v>167.7690606374602</v>
       </c>
       <c r="H43" t="n">
         <v>160.2541133334706</v>
@@ -30663,7 +30663,7 @@
         <v>67.57937653244244</v>
       </c>
       <c r="R43" t="n">
-        <v>167.3151187039071</v>
+        <v>171.2371854848186</v>
       </c>
       <c r="S43" t="n">
         <v>203.1196068241446</v>
@@ -30715,7 +30715,7 @@
         <v>203.1196068241446</v>
       </c>
       <c r="I44" t="n">
-        <v>191.4028220155732</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30724,16 +30724,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="M44" t="n">
-        <v>184.9323857225389</v>
+        <v>30.62988183022293</v>
       </c>
       <c r="N44" t="n">
-        <v>52.1744552702026</v>
+        <v>194.7601743539474</v>
       </c>
       <c r="O44" t="n">
-        <v>203.1196068241446</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -30794,7 +30794,7 @@
         <v>109.6789634095695</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>80.28292963098974</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>83.72298284202645</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30839,10 +30839,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>20.39565499917026</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>23.83570821020672</v>
       </c>
     </row>
     <row r="46">
@@ -30858,7 +30858,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>152.5375397991244</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -30885,7 +30885,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>3.922066780911607</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>6.598225711743296</v>
       </c>
       <c r="N2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34863,13 +34863,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="N4" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O4" t="n">
-        <v>6.598225711743297</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34939,19 +34939,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="N5" t="n">
-        <v>6.598225711743297</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="O5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="O6" t="n">
-        <v>6.598225711743296</v>
-      </c>
       <c r="P6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>6.876045741711437</v>
@@ -35097,13 +35097,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M7" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="N7" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="O7" t="n">
         <v>6.876045741711437</v>
@@ -35173,16 +35173,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>14.68444509028111</v>
       </c>
       <c r="O8" t="n">
         <v>15.30273751513505</v>
@@ -35264,10 +35264,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="P9" t="n">
-        <v>14.68444509028111</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>15.30273751513505</v>
@@ -35334,13 +35334,13 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="M10" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="N10" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="O10" t="n">
         <v>15.30273751513505</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>30.04027727224654</v>
+        <v>30.04027727224656</v>
       </c>
       <c r="K11" t="n">
         <v>166.9870372275798</v>
@@ -35495,19 +35495,19 @@
         <v>289.7603448773628</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>378.4332526339925</v>
       </c>
       <c r="N12" t="n">
-        <v>378.4332526339925</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>314.245827519981</v>
+        <v>297.699548450146</v>
       </c>
       <c r="P12" t="n">
         <v>235.0351651505595</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.33843439238241</v>
+        <v>103.8847134622172</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>52.94135954143933</v>
+        <v>52.9413595414393</v>
       </c>
       <c r="K13" t="n">
         <v>134.1243147518273</v>
@@ -35574,19 +35574,19 @@
         <v>191.1941728275612</v>
       </c>
       <c r="M13" t="n">
-        <v>204.9815312833377</v>
+        <v>204.9815312833376</v>
       </c>
       <c r="N13" t="n">
-        <v>208.7026751042765</v>
+        <v>92.22073834430134</v>
       </c>
       <c r="O13" t="n">
         <v>186.5632164892408</v>
       </c>
       <c r="P13" t="n">
-        <v>38.24756917174799</v>
+        <v>154.729505931724</v>
       </c>
       <c r="Q13" t="n">
-        <v>63.03150955107165</v>
+        <v>63.03150955107162</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>161.7084646558704</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.43454490482339</v>
+        <v>43.43454490482338</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35732,19 +35732,19 @@
         <v>289.7603448773628</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>378.4332526339925</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>314.245827519981</v>
       </c>
       <c r="P15" t="n">
-        <v>235.0351651505595</v>
+        <v>218.4888860807246</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.33843439238241</v>
+        <v>103.8847134622172</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>52.9413595414393</v>
       </c>
       <c r="K16" t="n">
         <v>134.1243147518273</v>
       </c>
       <c r="L16" t="n">
-        <v>191.1941728275612</v>
+        <v>74.71223606758602</v>
       </c>
       <c r="M16" t="n">
-        <v>204.9815312833377</v>
+        <v>204.9815312833376</v>
       </c>
       <c r="N16" t="n">
         <v>208.7026751042765</v>
@@ -35820,10 +35820,10 @@
         <v>186.5632164892408</v>
       </c>
       <c r="P16" t="n">
-        <v>91.18892871318722</v>
+        <v>154.729505931724</v>
       </c>
       <c r="Q16" t="n">
-        <v>63.03150955107165</v>
+        <v>63.03150955107162</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>24.26210689937043</v>
       </c>
       <c r="K18" t="n">
-        <v>169.3676466326654</v>
+        <v>64.14845980620071</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,7 +35975,7 @@
         <v>378.4332526339925</v>
       </c>
       <c r="O18" t="n">
-        <v>209.0266406935162</v>
+        <v>314.245827519981</v>
       </c>
       <c r="P18" t="n">
         <v>235.0351651505595</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>30.04027727224656</v>
+        <v>30.04027727224654</v>
       </c>
       <c r="K20" t="n">
         <v>166.9870372275798</v>
@@ -36203,19 +36203,19 @@
         <v>169.3676466326654</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>289.7603448773628</v>
       </c>
       <c r="M21" t="n">
-        <v>273.2140658075278</v>
+        <v>378.4332526339925</v>
       </c>
       <c r="N21" t="n">
         <v>378.4332526339925</v>
       </c>
       <c r="O21" t="n">
-        <v>314.245827519981</v>
+        <v>154.301460966713</v>
       </c>
       <c r="P21" t="n">
-        <v>235.0351651505595</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>103.8847134622172</v>
@@ -36437,19 +36437,19 @@
         <v>24.26210689937043</v>
       </c>
       <c r="K24" t="n">
-        <v>64.14845980620071</v>
+        <v>169.3676466326654</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>289.7603448773628</v>
       </c>
       <c r="M24" t="n">
         <v>378.4332526339925</v>
       </c>
       <c r="N24" t="n">
-        <v>378.4332526339925</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>314.245827519981</v>
+        <v>297.699548450146</v>
       </c>
       <c r="P24" t="n">
         <v>235.0351651505595</v>
@@ -36595,7 +36595,7 @@
         <v>180.4487178791489</v>
       </c>
       <c r="K26" t="n">
-        <v>317.3954778344822</v>
+        <v>317.3954778344821</v>
       </c>
       <c r="L26" t="n">
         <v>410.3753005766857</v>
@@ -36732,10 +36732,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.792967588690004</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>3.974477960333189</v>
       </c>
       <c r="F28" t="n">
         <v>4.987392583971115</v>
@@ -36753,16 +36753,16 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>153.9218692752156</v>
+        <v>14.1351176010098</v>
       </c>
       <c r="L28" t="n">
-        <v>60.58328674404715</v>
+        <v>210.9917273509495</v>
       </c>
       <c r="M28" t="n">
-        <v>224.7790858067259</v>
+        <v>74.37064519982357</v>
       </c>
       <c r="N28" t="n">
-        <v>78.09178902076243</v>
+        <v>228.5002296276648</v>
       </c>
       <c r="O28" t="n">
         <v>55.95233040572671</v>
@@ -36771,7 +36771,7 @@
         <v>174.5270604551123</v>
       </c>
       <c r="Q28" t="n">
-        <v>16.38913448171978</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36972,10 +36972,10 @@
         <v>1.792967588690004</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>3.974477960333189</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>4.987392583971115</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,31 +36984,31 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.631666852946156</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>72.73891406482761</v>
+        <v>10.62168893269648</v>
       </c>
       <c r="K31" t="n">
-        <v>3.513428668313196</v>
+        <v>153.9218692752156</v>
       </c>
       <c r="L31" t="n">
-        <v>73.37564183571655</v>
+        <v>60.58328674404715</v>
       </c>
       <c r="M31" t="n">
-        <v>74.37064519982357</v>
+        <v>224.7790858067259</v>
       </c>
       <c r="N31" t="n">
         <v>78.09178902076243</v>
       </c>
       <c r="O31" t="n">
-        <v>206.3607710126291</v>
+        <v>55.95233040572671</v>
       </c>
       <c r="P31" t="n">
         <v>174.5270604551123</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.82906407445992</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>182.6288715747691</v>
       </c>
       <c r="K32" t="n">
-        <v>319.5756315301023</v>
+        <v>266.5879535707116</v>
       </c>
       <c r="L32" t="n">
-        <v>412.5554542723058</v>
+        <v>412.5554542723059</v>
       </c>
       <c r="M32" t="n">
-        <v>458.626104626769</v>
+        <v>458.6261046267691</v>
       </c>
       <c r="N32" t="n">
         <v>448.7983159953606</v>
@@ -37084,13 +37084,13 @@
         <v>386.6469563614482</v>
       </c>
       <c r="P32" t="n">
-        <v>261.3093809990028</v>
+        <v>314.297058958393</v>
       </c>
       <c r="Q32" t="n">
         <v>196.0231392073459</v>
       </c>
       <c r="R32" t="n">
-        <v>33.79654217529568</v>
+        <v>33.79654217529571</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>3.973121284310139</v>
+        <v>3.973121284310167</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>6.154631655953352</v>
       </c>
       <c r="F34" t="n">
-        <v>7.167546279591249</v>
+        <v>7.167546279591278</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37227,22 +37227,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>133.104385626718</v>
+        <v>156.1020229708357</v>
       </c>
       <c r="L34" t="n">
         <v>60.58328674404715</v>
       </c>
       <c r="M34" t="n">
-        <v>226.9592395023461</v>
+        <v>74.37064519982357</v>
       </c>
       <c r="N34" t="n">
-        <v>230.6803833232849</v>
+        <v>78.09178902076243</v>
       </c>
       <c r="O34" t="n">
-        <v>55.95233040572671</v>
+        <v>179.3886557081777</v>
       </c>
       <c r="P34" t="n">
-        <v>24.11861984820993</v>
+        <v>176.7072141507325</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37306,10 +37306,10 @@
         <v>30.04027727224656</v>
       </c>
       <c r="K35" t="n">
-        <v>206.3474621430754</v>
+        <v>370.1066440517244</v>
       </c>
       <c r="L35" t="n">
-        <v>463.0864667939281</v>
+        <v>293.9540941383801</v>
       </c>
       <c r="M35" t="n">
         <v>306.0375103242465</v>
@@ -37330,7 +37330,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>5.373190746900047</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>169.3676466326654</v>
       </c>
       <c r="L36" t="n">
-        <v>289.7603448773617</v>
+        <v>289.7603448773628</v>
       </c>
       <c r="M36" t="n">
         <v>390.6409196425002</v>
@@ -37455,7 +37455,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>3.922066780911489</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>60.58328674404715</v>
       </c>
       <c r="M37" t="n">
-        <v>78.29271198073457</v>
+        <v>74.37064519982357</v>
       </c>
       <c r="N37" t="n">
         <v>78.09178902076243</v>
@@ -37537,10 +37537,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>11.71678480857153</v>
+        <v>11.7167848085715</v>
       </c>
       <c r="J38" t="n">
-        <v>30.04027727224656</v>
+        <v>233.1598840963912</v>
       </c>
       <c r="K38" t="n">
         <v>166.9870372275798</v>
@@ -37549,25 +37549,25 @@
         <v>259.9668599697833</v>
       </c>
       <c r="M38" t="n">
-        <v>452.4732025583984</v>
+        <v>306.0375103242465</v>
       </c>
       <c r="N38" t="n">
-        <v>296.2097216928381</v>
+        <v>490.9698960467852</v>
       </c>
       <c r="O38" t="n">
-        <v>234.0583620589258</v>
+        <v>264.6882438891475</v>
       </c>
       <c r="P38" t="n">
-        <v>364.8280714800151</v>
+        <v>161.7084646558704</v>
       </c>
       <c r="Q38" t="n">
         <v>43.43454490482339</v>
       </c>
       <c r="R38" t="n">
-        <v>84.3275546969179</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>5.373190746900075</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37634,7 +37634,7 @@
         <v>416.8456924854434</v>
       </c>
       <c r="O39" t="n">
-        <v>314.245827519981</v>
+        <v>314.2458275199798</v>
       </c>
       <c r="P39" t="n">
         <v>235.0351651505595</v>
@@ -37680,7 +37680,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>3.922066780910972</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>60.58328674404715</v>
       </c>
       <c r="M40" t="n">
-        <v>74.37064519982357</v>
+        <v>78.29271198073481</v>
       </c>
       <c r="N40" t="n">
         <v>78.09178902076243</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>233.1598840963911</v>
+        <v>30.04027727224656</v>
       </c>
       <c r="K41" t="n">
-        <v>370.1066440517243</v>
+        <v>166.9870372275798</v>
       </c>
       <c r="L41" t="n">
-        <v>259.9668599697833</v>
+        <v>463.086466793928</v>
       </c>
       <c r="M41" t="n">
-        <v>340.0247444928439</v>
+        <v>306.0375103242465</v>
       </c>
       <c r="N41" t="n">
         <v>296.2097216928381</v>
@@ -37795,16 +37795,16 @@
         <v>234.0583620589258</v>
       </c>
       <c r="P41" t="n">
-        <v>161.7084646558704</v>
+        <v>314.487750951694</v>
       </c>
       <c r="Q41" t="n">
         <v>43.43454490482339</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>84.32755469691782</v>
       </c>
       <c r="S41" t="n">
-        <v>5.373190746899962</v>
+        <v>5.373190746900018</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>24.26210689937043</v>
+        <v>24.2621068993706</v>
       </c>
       <c r="K42" t="n">
         <v>169.3676466326654</v>
@@ -37926,7 +37926,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>3.922066780911999</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>3.922066780911575</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>11.71678480857144</v>
       </c>
       <c r="J44" t="n">
         <v>30.04027727224656</v>
@@ -38020,16 +38020,16 @@
         <v>166.9870372275798</v>
       </c>
       <c r="L44" t="n">
-        <v>259.9668599697833</v>
+        <v>463.086466793928</v>
       </c>
       <c r="M44" t="n">
-        <v>490.9698960467854</v>
+        <v>336.6673921544694</v>
       </c>
       <c r="N44" t="n">
-        <v>348.3841769630407</v>
+        <v>490.9698960467855</v>
       </c>
       <c r="O44" t="n">
-        <v>437.1779688830703</v>
+        <v>234.0583620589258</v>
       </c>
       <c r="P44" t="n">
         <v>161.7084646558704</v>
@@ -38041,7 +38041,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>5.373190746899962</v>
+        <v>5.373190746900018</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38105,7 +38105,7 @@
         <v>390.6409196425002</v>
       </c>
       <c r="N45" t="n">
-        <v>416.8456924854433</v>
+        <v>416.8456924854434</v>
       </c>
       <c r="O45" t="n">
         <v>314.245827519981</v>
@@ -38154,7 +38154,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>3.922066780912006</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>60.58328674404715</v>
       </c>
       <c r="M46" t="n">
-        <v>74.37064519982357</v>
+        <v>78.29271198073518</v>
       </c>
       <c r="N46" t="n">
         <v>78.09178902076243</v>
